--- a/Financial Analysis/V.xlsx
+++ b/Financial Analysis/V.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A7C078F-119D-4E7C-9D76-DEC98A67ADC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35E2611C-768A-4380-913C-CB0173000090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{0E0749A9-7B4C-463E-A44A-39D457257264}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0E0749A9-7B4C-463E-A44A-39D457257264}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -315,13 +315,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>22860</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -339,7 +339,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11521440" y="0"/>
+          <a:off x="12245340" y="0"/>
           <a:ext cx="0" cy="6309360"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -715,8 +715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2619B682-F786-4690-9B55-6BA7F63E1587}">
   <dimension ref="C2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -741,17 +741,17 @@
         <v>0</v>
       </c>
       <c r="D3" s="11">
-        <v>334.1</v>
+        <v>347.6</v>
       </c>
       <c r="E3" s="2">
-        <v>45751</v>
+        <v>45781</v>
       </c>
       <c r="F3" s="2">
         <f ca="1">TODAY()</f>
-        <v>45751</v>
+        <v>45781</v>
       </c>
       <c r="G3" s="2">
-        <v>45776</v>
+        <v>45867</v>
       </c>
     </row>
     <row r="4" spans="3:7" x14ac:dyDescent="0.3">
@@ -759,11 +759,11 @@
         <v>1</v>
       </c>
       <c r="D4" s="3">
-        <f>1723.4+4.8+120.3+9.2</f>
-        <v>1857.7</v>
+        <f>1711+4.8+120.3+9</f>
+        <v>1845.1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.3">
@@ -772,7 +772,7 @@
       </c>
       <c r="D5" s="3">
         <f>D3*D4</f>
-        <v>620657.57000000007</v>
+        <v>641356.76</v>
       </c>
     </row>
     <row r="6" spans="3:7" x14ac:dyDescent="0.3">
@@ -780,11 +780,11 @@
         <v>3</v>
       </c>
       <c r="D6" s="3">
-        <f>12367+1967+1757</f>
-        <v>16091</v>
+        <f>11734+2017+1470</f>
+        <v>15221</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
@@ -792,11 +792,11 @@
         <v>4</v>
       </c>
       <c r="D7" s="3">
-        <f>3929+16680</f>
-        <v>20609</v>
+        <f>3948+16814</f>
+        <v>20762</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
@@ -805,7 +805,7 @@
       </c>
       <c r="D8" s="3">
         <f>D6-D7</f>
-        <v>-4518</v>
+        <v>-5541</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
@@ -814,7 +814,7 @@
       </c>
       <c r="D9" s="3">
         <f>D5-D8</f>
-        <v>625175.57000000007</v>
+        <v>646897.76</v>
       </c>
     </row>
   </sheetData>
@@ -827,11 +827,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83A1B6C-1CC8-4332-BFEF-F20E1EFE721D}">
   <dimension ref="A1:EQ32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="Y5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="N3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AN31" sqref="AN31"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1091,8 +1091,7 @@
         <v>9510</v>
       </c>
       <c r="P3" s="7">
-        <f>L3*1.11</f>
-        <v>9740.25</v>
+        <v>9594</v>
       </c>
       <c r="Q3" s="7">
         <f>M3*1.1</f>
@@ -1125,47 +1124,47 @@
       </c>
       <c r="Z3" s="7">
         <f>SUM(O3:R3)</f>
-        <v>39330.44</v>
+        <v>39184.19</v>
       </c>
       <c r="AA3" s="7">
         <f>Z3*1.07</f>
-        <v>42083.570800000001</v>
+        <v>41927.083300000006</v>
       </c>
       <c r="AB3" s="7">
         <f>AA3*1.05</f>
-        <v>44187.749340000002</v>
+        <v>44023.43746500001</v>
       </c>
       <c r="AC3" s="7">
         <f>AB3*1.03</f>
-        <v>45513.381820200004</v>
+        <v>45344.140588950009</v>
       </c>
       <c r="AD3" s="7">
         <f t="shared" ref="AD3:AJ3" si="0">AC3*1.02</f>
-        <v>46423.649456604006</v>
+        <v>46251.023400729013</v>
       </c>
       <c r="AE3" s="7">
         <f t="shared" si="0"/>
-        <v>47352.122445736088</v>
+        <v>47176.043868743596</v>
       </c>
       <c r="AF3" s="7">
         <f t="shared" si="0"/>
-        <v>48299.164894650807</v>
+        <v>48119.564746118471</v>
       </c>
       <c r="AG3" s="7">
         <f t="shared" si="0"/>
-        <v>49265.14819254382</v>
+        <v>49081.956041040838</v>
       </c>
       <c r="AH3" s="7">
         <f t="shared" si="0"/>
-        <v>50250.451156394694</v>
+        <v>50063.595161861653</v>
       </c>
       <c r="AI3" s="7">
         <f t="shared" si="0"/>
-        <v>51255.46017952259</v>
+        <v>51064.867065098886</v>
       </c>
       <c r="AJ3" s="7">
         <f t="shared" si="0"/>
-        <v>52280.569383113041</v>
+        <v>52086.164406400865</v>
       </c>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.3">
@@ -1212,8 +1211,7 @@
         <v>1813</v>
       </c>
       <c r="P4" s="3">
-        <f>P3-P5</f>
-        <v>1753.2450000000008</v>
+        <v>1657</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" ref="Q4:R4" si="1">Q3-Q5</f>
@@ -1246,47 +1244,47 @@
       </c>
       <c r="Z4" s="3">
         <f>SUM(O4:R4)</f>
-        <v>7180.6792000000023</v>
+        <v>7084.4342000000015</v>
       </c>
       <c r="AA4" s="3">
         <f t="shared" ref="AA4:AJ4" si="2">AA3-AA5</f>
-        <v>7154.2070359999998</v>
+        <v>7127.6041610000029</v>
       </c>
       <c r="AB4" s="3">
         <f t="shared" si="2"/>
-        <v>7511.9173878000001</v>
+        <v>7483.9843690500056</v>
       </c>
       <c r="AC4" s="3">
         <f t="shared" si="2"/>
-        <v>7737.2749094340033</v>
+        <v>7708.5039001215046</v>
       </c>
       <c r="AD4" s="3">
         <f t="shared" si="2"/>
-        <v>7892.0204076226801</v>
+        <v>7862.6739781239376</v>
       </c>
       <c r="AE4" s="3">
         <f t="shared" si="2"/>
-        <v>8049.8608157751369</v>
+        <v>8019.9274576864118</v>
       </c>
       <c r="AF4" s="3">
         <f t="shared" si="2"/>
-        <v>8210.8580320906403</v>
+        <v>8180.3260068401432</v>
       </c>
       <c r="AG4" s="3">
         <f t="shared" si="2"/>
-        <v>8375.0751927324527</v>
+        <v>8343.932526976947</v>
       </c>
       <c r="AH4" s="3">
         <f t="shared" si="2"/>
-        <v>8542.5766965871007</v>
+        <v>8510.8111775164798</v>
       </c>
       <c r="AI4" s="3">
         <f t="shared" si="2"/>
-        <v>8713.428230518839</v>
+        <v>8681.0274010668145</v>
       </c>
       <c r="AJ4" s="3">
         <f t="shared" si="2"/>
-        <v>8887.6967951292172</v>
+        <v>8854.6479490881466</v>
       </c>
     </row>
     <row r="5" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -1343,12 +1341,12 @@
         <v>8008</v>
       </c>
       <c r="O5" s="7">
-        <f t="shared" ref="O5" si="4">O3-O4</f>
+        <f t="shared" ref="O5:P5" si="4">O3-O4</f>
         <v>7697</v>
       </c>
       <c r="P5" s="7">
-        <f>P3*0.82</f>
-        <v>7987.0049999999992</v>
+        <f t="shared" si="4"/>
+        <v>7937</v>
       </c>
       <c r="Q5" s="7">
         <f t="shared" ref="Q5:R5" si="5">Q3*0.82</f>
@@ -1384,47 +1382,47 @@
       </c>
       <c r="Z5" s="7">
         <f t="shared" si="6"/>
-        <v>32149.7608</v>
+        <v>32099.755799999999</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" ref="AA5:AJ5" si="7">AA3*0.83</f>
-        <v>34929.363764000002</v>
+        <v>34799.479139000003</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" si="7"/>
-        <v>36675.831952200002</v>
+        <v>36539.453095950004</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="7"/>
-        <v>37776.106910766001</v>
+        <v>37635.636688828505</v>
       </c>
       <c r="AD5" s="7">
         <f t="shared" si="7"/>
-        <v>38531.629048981325</v>
+        <v>38388.349422605075</v>
       </c>
       <c r="AE5" s="7">
         <f t="shared" si="7"/>
-        <v>39302.261629960951</v>
+        <v>39156.116411057184</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="7"/>
-        <v>40088.306862560166</v>
+        <v>39939.238739278328</v>
       </c>
       <c r="AG5" s="7">
         <f t="shared" si="7"/>
-        <v>40890.072999811367</v>
+        <v>40738.023514063891</v>
       </c>
       <c r="AH5" s="7">
         <f t="shared" si="7"/>
-        <v>41707.874459807594</v>
+        <v>41552.783984345173</v>
       </c>
       <c r="AI5" s="7">
         <f t="shared" si="7"/>
-        <v>42542.031949003751</v>
+        <v>42383.839664032072</v>
       </c>
       <c r="AJ5" s="7">
         <f t="shared" si="7"/>
-        <v>43392.872587983824</v>
+        <v>43231.516457312719</v>
       </c>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.3">
@@ -1471,8 +1469,7 @@
         <v>306</v>
       </c>
       <c r="P6" s="3">
-        <f>P3*0.04</f>
-        <v>389.61</v>
+        <v>381</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" ref="Q6" si="8">Q3*0.04</f>
@@ -1505,47 +1502,47 @@
       </c>
       <c r="Z6" s="3">
         <f t="shared" ref="Z6:Z11" si="12">SUM(O6:R6)</f>
-        <v>1704.6214</v>
+        <v>1696.0113999999999</v>
       </c>
       <c r="AA6" s="3">
         <f t="shared" ref="AA6:AJ6" si="13">AA3*0.04</f>
-        <v>1683.342832</v>
+        <v>1677.0833320000002</v>
       </c>
       <c r="AB6" s="3">
         <f t="shared" si="13"/>
-        <v>1767.5099736000002</v>
+        <v>1760.9374986000005</v>
       </c>
       <c r="AC6" s="3">
         <f t="shared" si="13"/>
-        <v>1820.5352728080002</v>
+        <v>1813.7656235580005</v>
       </c>
       <c r="AD6" s="3">
         <f t="shared" si="13"/>
-        <v>1856.9459782641602</v>
+        <v>1850.0409360291605</v>
       </c>
       <c r="AE6" s="3">
         <f t="shared" si="13"/>
-        <v>1894.0848978294434</v>
+        <v>1887.0417547497439</v>
       </c>
       <c r="AF6" s="3">
         <f t="shared" si="13"/>
-        <v>1931.9665957860323</v>
+        <v>1924.7825898447388</v>
       </c>
       <c r="AG6" s="3">
         <f t="shared" si="13"/>
-        <v>1970.6059277017528</v>
+        <v>1963.2782416416335</v>
       </c>
       <c r="AH6" s="3">
         <f t="shared" si="13"/>
-        <v>2010.0180462557878</v>
+        <v>2002.5438064744662</v>
       </c>
       <c r="AI6" s="3">
         <f t="shared" si="13"/>
-        <v>2050.2184071809038</v>
+        <v>2042.5946826039556</v>
       </c>
       <c r="AJ6" s="3">
         <f t="shared" si="13"/>
-        <v>2091.2227753245215</v>
+        <v>2083.4465762560349</v>
       </c>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.3">
@@ -1592,8 +1589,7 @@
         <v>207</v>
       </c>
       <c r="P7" s="3">
-        <f>L7*1.1</f>
-        <v>207.9</v>
+        <v>224</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" ref="Q7:R7" si="14">M7*1.1</f>
@@ -1626,47 +1622,47 @@
       </c>
       <c r="Z7" s="3">
         <f t="shared" si="12"/>
-        <v>863.7</v>
+        <v>879.8</v>
       </c>
       <c r="AA7" s="3">
         <f>Z7*1.06</f>
-        <v>915.52200000000005</v>
+        <v>932.58799999999997</v>
       </c>
       <c r="AB7" s="3">
         <f>AA7*1.04</f>
-        <v>952.1428800000001</v>
+        <v>969.89152000000001</v>
       </c>
       <c r="AC7" s="3">
         <f>AB7*1.03</f>
-        <v>980.70716640000012</v>
+        <v>998.98826560000009</v>
       </c>
       <c r="AD7" s="3">
         <f>AC7*1.02</f>
-        <v>1000.3213097280002</v>
+        <v>1018.9680309120001</v>
       </c>
       <c r="AE7" s="3">
         <f t="shared" ref="AE7:AJ7" si="15">AD7*1.01</f>
-        <v>1010.3245228252802</v>
+        <v>1029.1577112211201</v>
       </c>
       <c r="AF7" s="3">
         <f t="shared" si="15"/>
-        <v>1020.427768053533</v>
+        <v>1039.4492883333312</v>
       </c>
       <c r="AG7" s="3">
         <f t="shared" si="15"/>
-        <v>1030.6320457340682</v>
+        <v>1049.8437812166644</v>
       </c>
       <c r="AH7" s="3">
         <f t="shared" si="15"/>
-        <v>1040.9383661914089</v>
+        <v>1060.3422190288311</v>
       </c>
       <c r="AI7" s="3">
         <f t="shared" si="15"/>
-        <v>1051.347749853323</v>
+        <v>1070.9456412191194</v>
       </c>
       <c r="AJ7" s="3">
         <f t="shared" si="15"/>
-        <v>1061.8612273518563</v>
+        <v>1081.6550976313106</v>
       </c>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.3">
@@ -1713,8 +1709,7 @@
         <v>143</v>
       </c>
       <c r="P8" s="3">
-        <f>P3*0.02</f>
-        <v>194.80500000000001</v>
+        <v>173</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" ref="Q8:R8" si="16">Q3*0.02</f>
@@ -1747,47 +1742,47 @@
       </c>
       <c r="Z8" s="3">
         <f t="shared" si="12"/>
-        <v>739.40880000000004</v>
+        <v>717.60380000000009</v>
       </c>
       <c r="AA8" s="3">
         <f t="shared" ref="AA8:AJ8" si="17">AA3*0.02</f>
-        <v>841.67141600000002</v>
+        <v>838.54166600000008</v>
       </c>
       <c r="AB8" s="3">
         <f t="shared" si="17"/>
-        <v>883.7549868000001</v>
+        <v>880.46874930000024</v>
       </c>
       <c r="AC8" s="3">
         <f t="shared" si="17"/>
-        <v>910.26763640400009</v>
+        <v>906.88281177900024</v>
       </c>
       <c r="AD8" s="3">
         <f t="shared" si="17"/>
-        <v>928.4729891320801</v>
+        <v>925.02046801458027</v>
       </c>
       <c r="AE8" s="3">
         <f t="shared" si="17"/>
-        <v>947.04244891472172</v>
+        <v>943.52087737487193</v>
       </c>
       <c r="AF8" s="3">
         <f t="shared" si="17"/>
-        <v>965.98329789301613</v>
+        <v>962.39129492236941</v>
       </c>
       <c r="AG8" s="3">
         <f t="shared" si="17"/>
-        <v>985.30296385087638</v>
+        <v>981.63912082081674</v>
       </c>
       <c r="AH8" s="3">
         <f t="shared" si="17"/>
-        <v>1005.0090231278939</v>
+        <v>1001.2719032372331</v>
       </c>
       <c r="AI8" s="3">
         <f t="shared" si="17"/>
-        <v>1025.1092035904519</v>
+        <v>1021.2973413019778</v>
       </c>
       <c r="AJ8" s="3">
         <f t="shared" si="17"/>
-        <v>1045.6113876622608</v>
+        <v>1041.7232881280174</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
@@ -1834,16 +1829,15 @@
         <v>282</v>
       </c>
       <c r="P9" s="3">
-        <f>L9*1.12</f>
-        <v>278.88000000000005</v>
+        <v>305</v>
       </c>
       <c r="Q9" s="3">
-        <f>M9*1.08</f>
-        <v>285.12</v>
+        <f>M9*1.16</f>
+        <v>306.23999999999995</v>
       </c>
       <c r="R9" s="3">
-        <f t="shared" ref="R9" si="18">N9*1.08</f>
-        <v>295.92</v>
+        <f>N9*1.15</f>
+        <v>315.09999999999997</v>
       </c>
       <c r="T9" s="3">
         <v>656</v>
@@ -1868,48 +1862,18 @@
       </c>
       <c r="Z9" s="3">
         <f t="shared" si="12"/>
-        <v>1141.92</v>
-      </c>
-      <c r="AA9" s="3">
-        <f t="shared" ref="AA9:AB9" si="19">Z9*1.06</f>
-        <v>1210.4352000000001</v>
-      </c>
-      <c r="AB9" s="3">
-        <f t="shared" si="19"/>
-        <v>1283.0613120000003</v>
-      </c>
-      <c r="AC9" s="3">
-        <f>AB9*1.04</f>
-        <v>1334.3837644800003</v>
-      </c>
-      <c r="AD9" s="3">
-        <f t="shared" ref="AD9:AJ9" si="20">AC9*1.04</f>
-        <v>1387.7591150592004</v>
-      </c>
-      <c r="AE9" s="3">
-        <f t="shared" si="20"/>
-        <v>1443.2694796615685</v>
-      </c>
-      <c r="AF9" s="3">
-        <f t="shared" si="20"/>
-        <v>1501.0002588480313</v>
-      </c>
-      <c r="AG9" s="3">
-        <f t="shared" si="20"/>
-        <v>1561.0402692019527</v>
-      </c>
-      <c r="AH9" s="3">
-        <f t="shared" si="20"/>
-        <v>1623.4818799700308</v>
-      </c>
-      <c r="AI9" s="3">
-        <f t="shared" si="20"/>
-        <v>1688.4211551688322</v>
-      </c>
-      <c r="AJ9" s="3">
-        <f t="shared" si="20"/>
-        <v>1755.9580013755856</v>
-      </c>
+        <v>1208.3399999999999</v>
+      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+      <c r="AG9" s="3"/>
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
@@ -1955,16 +1919,15 @@
         <v>481</v>
       </c>
       <c r="P10" s="3">
-        <f>L10*1.05</f>
-        <v>474.6</v>
+        <v>419</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" ref="Q10:R10" si="21">M10*1.2</f>
-        <v>458.4</v>
+        <f>M10*1.15</f>
+        <v>439.29999999999995</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="21"/>
-        <v>508.79999999999995</v>
+        <f>N10*1.15</f>
+        <v>487.59999999999997</v>
       </c>
       <c r="T10" s="3">
         <v>1196</v>
@@ -1989,47 +1952,47 @@
       </c>
       <c r="Z10" s="3">
         <f t="shared" si="12"/>
-        <v>1922.8</v>
+        <v>1826.8999999999999</v>
       </c>
       <c r="AA10" s="3">
-        <f>Z10*1.06</f>
-        <v>2038.1680000000001</v>
+        <f>Z10*1.05</f>
+        <v>1918.2449999999999</v>
       </c>
       <c r="AB10" s="3">
         <f>AA10*1.03</f>
-        <v>2099.31304</v>
+        <v>1975.7923499999999</v>
       </c>
       <c r="AC10" s="3">
         <f>AB10*1.02</f>
-        <v>2141.2993007999999</v>
+        <v>2015.3081970000001</v>
       </c>
       <c r="AD10" s="3">
-        <f t="shared" ref="AD10" si="22">AC10*1.02</f>
-        <v>2184.125286816</v>
+        <f t="shared" ref="AD10" si="18">AC10*1.02</f>
+        <v>2055.6143609400001</v>
       </c>
       <c r="AE10" s="3">
         <f>AD10*1.01</f>
-        <v>2205.9665396841601</v>
+        <v>2076.1705045494</v>
       </c>
       <c r="AF10" s="3">
-        <f t="shared" ref="AF10:AJ10" si="23">AE10*1.01</f>
-        <v>2228.0262050810015</v>
+        <f t="shared" ref="AF10:AJ10" si="19">AE10*1.01</f>
+        <v>2096.9322095948942</v>
       </c>
       <c r="AG10" s="3">
-        <f t="shared" si="23"/>
-        <v>2250.3064671318116</v>
+        <f t="shared" si="19"/>
+        <v>2117.9015316908431</v>
       </c>
       <c r="AH10" s="3">
-        <f t="shared" si="23"/>
-        <v>2272.8095318031296</v>
+        <f t="shared" si="19"/>
+        <v>2139.0805470077516</v>
       </c>
       <c r="AI10" s="3">
-        <f t="shared" si="23"/>
-        <v>2295.5376271211608</v>
+        <f t="shared" si="19"/>
+        <v>2160.471352477829</v>
       </c>
       <c r="AJ10" s="3">
-        <f t="shared" si="23"/>
-        <v>2318.4930033923724</v>
+        <f t="shared" si="19"/>
+        <v>2182.0760660026071</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
@@ -2076,10 +2039,10 @@
         <v>44</v>
       </c>
       <c r="P11" s="3">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Q11" s="3">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="R11" s="3">
         <f>R3*0.04</f>
@@ -2108,47 +2071,47 @@
       </c>
       <c r="Z11" s="3">
         <f t="shared" si="12"/>
-        <v>495.60760000000005</v>
+        <v>2455.6076000000003</v>
       </c>
       <c r="AA11" s="3">
         <f>AA3*0.01</f>
-        <v>420.83570800000001</v>
+        <v>419.27083300000004</v>
       </c>
       <c r="AB11" s="3">
-        <f t="shared" ref="AB11:AJ11" si="24">AB3*0.01</f>
-        <v>441.87749340000005</v>
+        <f t="shared" ref="AB11:AJ11" si="20">AB3*0.01</f>
+        <v>440.23437465000012</v>
       </c>
       <c r="AC11" s="3">
-        <f t="shared" si="24"/>
-        <v>455.13381820200004</v>
+        <f t="shared" si="20"/>
+        <v>453.44140588950012</v>
       </c>
       <c r="AD11" s="3">
-        <f t="shared" si="24"/>
-        <v>464.23649456604005</v>
+        <f t="shared" si="20"/>
+        <v>462.51023400729014</v>
       </c>
       <c r="AE11" s="3">
-        <f t="shared" si="24"/>
-        <v>473.52122445736086</v>
+        <f t="shared" si="20"/>
+        <v>471.76043868743596</v>
       </c>
       <c r="AF11" s="3">
-        <f t="shared" si="24"/>
-        <v>482.99164894650806</v>
+        <f t="shared" si="20"/>
+        <v>481.19564746118471</v>
       </c>
       <c r="AG11" s="3">
-        <f t="shared" si="24"/>
-        <v>492.65148192543819</v>
+        <f t="shared" si="20"/>
+        <v>490.81956041040837</v>
       </c>
       <c r="AH11" s="3">
-        <f t="shared" si="24"/>
-        <v>502.50451156394695</v>
+        <f t="shared" si="20"/>
+        <v>500.63595161861656</v>
       </c>
       <c r="AI11" s="3">
-        <f t="shared" si="24"/>
-        <v>512.55460179522595</v>
+        <f t="shared" si="20"/>
+        <v>510.64867065098889</v>
       </c>
       <c r="AJ11" s="3">
-        <f t="shared" si="24"/>
-        <v>522.80569383113038</v>
+        <f t="shared" si="20"/>
+        <v>520.86164406400871</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
@@ -2156,136 +2119,136 @@
         <v>18</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" ref="C12:L12" si="25">SUM(C6:C11)</f>
+        <f t="shared" ref="C12:L12" si="21">SUM(C6:C11)</f>
         <v>1158</v>
       </c>
       <c r="D12" s="3">
+        <f t="shared" si="21"/>
+        <v>1161</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="21"/>
+        <v>1844</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="21"/>
+        <v>1344</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="21"/>
+        <v>1509</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="21"/>
+        <v>1134</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="21"/>
+        <v>1618</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="21"/>
+        <v>1561</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="21"/>
+        <v>1201</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="21"/>
+        <v>1818</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" ref="M12:N12" si="22">SUM(M6:M11)</f>
+        <v>1389</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="22"/>
+        <v>1659</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" ref="O12:R12" si="23">SUM(O6:O11)</f>
+        <v>1463</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="23"/>
+        <v>2502</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="23"/>
+        <v>2552.94</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="23"/>
+        <v>2266.3227999999999</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" ref="T12:Y12" si="24">SUM(T6:T11)</f>
+        <v>4532</v>
+      </c>
+      <c r="U12" s="3">
+        <f t="shared" si="24"/>
+        <v>3980</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" si="24"/>
+        <v>4061</v>
+      </c>
+      <c r="W12" s="3">
+        <f t="shared" si="24"/>
+        <v>5507</v>
+      </c>
+      <c r="X12" s="3">
+        <f t="shared" si="24"/>
+        <v>5822</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" si="24"/>
+        <v>6067</v>
+      </c>
+      <c r="Z12" s="3">
+        <f t="shared" ref="Z12:AJ12" si="25">SUM(Z6:Z11)</f>
+        <v>8784.2628000000004</v>
+      </c>
+      <c r="AA12" s="3">
         <f t="shared" si="25"/>
-        <v>1161</v>
-      </c>
-      <c r="E12" s="3">
+        <v>5785.7288310000004</v>
+      </c>
+      <c r="AB12" s="3">
         <f t="shared" si="25"/>
-        <v>1844</v>
-      </c>
-      <c r="F12" s="3">
+        <v>6027.3244925500003</v>
+      </c>
+      <c r="AC12" s="3">
         <f t="shared" si="25"/>
-        <v>1344</v>
-      </c>
-      <c r="G12" s="3">
+        <v>6188.3863038265008</v>
+      </c>
+      <c r="AD12" s="3">
         <f t="shared" si="25"/>
-        <v>1509</v>
-      </c>
-      <c r="H12" s="3">
+        <v>6312.1540299030312</v>
+      </c>
+      <c r="AE12" s="3">
         <f t="shared" si="25"/>
-        <v>1134</v>
-      </c>
-      <c r="I12" s="3">
+        <v>6407.6512865825725</v>
+      </c>
+      <c r="AF12" s="3">
         <f t="shared" si="25"/>
-        <v>1618</v>
-      </c>
-      <c r="J12" s="3">
+        <v>6504.751030156518</v>
+      </c>
+      <c r="AG12" s="3">
         <f t="shared" si="25"/>
-        <v>1561</v>
-      </c>
-      <c r="K12" s="3">
+        <v>6603.4822357803669</v>
+      </c>
+      <c r="AH12" s="3">
         <f t="shared" si="25"/>
-        <v>1201</v>
-      </c>
-      <c r="L12" s="3">
+        <v>6703.8744273668981</v>
+      </c>
+      <c r="AI12" s="3">
         <f t="shared" si="25"/>
-        <v>1818</v>
-      </c>
-      <c r="M12" s="3">
-        <f t="shared" ref="M12:N12" si="26">SUM(M6:M11)</f>
-        <v>1389</v>
-      </c>
-      <c r="N12" s="3">
-        <f t="shared" si="26"/>
-        <v>1659</v>
-      </c>
-      <c r="O12" s="3">
-        <f t="shared" ref="O12:R12" si="27">SUM(O6:O11)</f>
-        <v>1463</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" si="27"/>
-        <v>1565.7950000000001</v>
-      </c>
-      <c r="Q12" s="3">
-        <f t="shared" si="27"/>
-        <v>1570.92</v>
-      </c>
-      <c r="R12" s="3">
-        <f t="shared" si="27"/>
-        <v>2268.3427999999999</v>
-      </c>
-      <c r="T12" s="3">
-        <f t="shared" ref="T12:Y12" si="28">SUM(T6:T11)</f>
-        <v>4532</v>
-      </c>
-      <c r="U12" s="3">
-        <f t="shared" si="28"/>
-        <v>3980</v>
-      </c>
-      <c r="V12" s="3">
-        <f t="shared" si="28"/>
-        <v>4061</v>
-      </c>
-      <c r="W12" s="3">
-        <f t="shared" si="28"/>
-        <v>5507</v>
-      </c>
-      <c r="X12" s="3">
-        <f t="shared" si="28"/>
-        <v>5822</v>
-      </c>
-      <c r="Y12" s="3">
-        <f t="shared" si="28"/>
-        <v>6067</v>
-      </c>
-      <c r="Z12" s="3">
-        <f t="shared" ref="Z12:AJ12" si="29">SUM(Z6:Z11)</f>
-        <v>6868.0578000000005</v>
-      </c>
-      <c r="AA12" s="3">
-        <f t="shared" si="29"/>
-        <v>7109.9751559999995</v>
-      </c>
-      <c r="AB12" s="3">
-        <f t="shared" si="29"/>
-        <v>7427.6596858000012</v>
-      </c>
-      <c r="AC12" s="3">
-        <f t="shared" si="29"/>
-        <v>7642.3269590940008</v>
-      </c>
-      <c r="AD12" s="3">
-        <f t="shared" si="29"/>
-        <v>7821.8611735654813</v>
-      </c>
-      <c r="AE12" s="3">
-        <f t="shared" si="29"/>
-        <v>7974.2091133725353</v>
-      </c>
-      <c r="AF12" s="3">
-        <f t="shared" si="29"/>
-        <v>8130.3957746081223</v>
-      </c>
-      <c r="AG12" s="3">
-        <f t="shared" si="29"/>
-        <v>8290.5391555459009</v>
-      </c>
-      <c r="AH12" s="3">
-        <f t="shared" si="29"/>
-        <v>8454.7613589121993</v>
-      </c>
-      <c r="AI12" s="3">
-        <f t="shared" si="29"/>
-        <v>8623.1887447098979</v>
+        <v>6805.9576882538704</v>
       </c>
       <c r="AJ12" s="3">
-        <f t="shared" si="29"/>
-        <v>8795.9520889377272</v>
+        <f t="shared" si="25"/>
+        <v>6909.762672081979</v>
       </c>
     </row>
     <row r="13" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2294,136 +2257,136 @@
         <v>19</v>
       </c>
       <c r="C13" s="7">
-        <f t="shared" ref="C13:L13" si="30">C5-C12</f>
+        <f t="shared" ref="C13:L13" si="26">C5-C12</f>
         <v>4776</v>
       </c>
       <c r="D13" s="7">
+        <f t="shared" si="26"/>
+        <v>4802</v>
+      </c>
+      <c r="E13" s="7">
+        <f t="shared" si="26"/>
+        <v>4148</v>
+      </c>
+      <c r="F13" s="7">
+        <f t="shared" si="26"/>
+        <v>5087</v>
+      </c>
+      <c r="G13" s="7">
+        <f t="shared" si="26"/>
+        <v>5090</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="26"/>
+        <v>5336</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="26"/>
+        <v>5024</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="26"/>
+        <v>5550</v>
+      </c>
+      <c r="K13" s="7">
+        <f t="shared" si="26"/>
+        <v>5954</v>
+      </c>
+      <c r="L13" s="7">
+        <f t="shared" si="26"/>
+        <v>5354</v>
+      </c>
+      <c r="M13" s="7">
+        <f t="shared" ref="M13:N13" si="27">M5-M12</f>
+        <v>5938</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="27"/>
+        <v>6349</v>
+      </c>
+      <c r="O13" s="7">
+        <f t="shared" ref="O13:R13" si="28">O5-O12</f>
+        <v>6234</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="28"/>
+        <v>5435</v>
+      </c>
+      <c r="Q13" s="7">
+        <f t="shared" si="28"/>
+        <v>5474.8599999999988</v>
+      </c>
+      <c r="R13" s="7">
+        <f t="shared" si="28"/>
+        <v>6171.6329999999998</v>
+      </c>
+      <c r="T13" s="7">
+        <f t="shared" ref="T13:Y13" si="29">T5-T12</f>
+        <v>15001</v>
+      </c>
+      <c r="U13" s="7">
+        <f t="shared" si="29"/>
+        <v>14081</v>
+      </c>
+      <c r="V13" s="7">
+        <f t="shared" si="29"/>
+        <v>15804</v>
+      </c>
+      <c r="W13" s="7">
+        <f t="shared" si="29"/>
+        <v>18813</v>
+      </c>
+      <c r="X13" s="7">
+        <f t="shared" si="29"/>
+        <v>21000</v>
+      </c>
+      <c r="Y13" s="7">
+        <f t="shared" si="29"/>
+        <v>23595</v>
+      </c>
+      <c r="Z13" s="7">
+        <f t="shared" ref="Z13:AJ13" si="30">Z5-Z12</f>
+        <v>23315.492999999999</v>
+      </c>
+      <c r="AA13" s="7">
         <f t="shared" si="30"/>
-        <v>4802</v>
-      </c>
-      <c r="E13" s="7">
+        <v>29013.750308000002</v>
+      </c>
+      <c r="AB13" s="7">
         <f t="shared" si="30"/>
-        <v>4148</v>
-      </c>
-      <c r="F13" s="7">
+        <v>30512.128603400004</v>
+      </c>
+      <c r="AC13" s="7">
         <f t="shared" si="30"/>
-        <v>5087</v>
-      </c>
-      <c r="G13" s="7">
+        <v>31447.250385002004</v>
+      </c>
+      <c r="AD13" s="7">
         <f t="shared" si="30"/>
-        <v>5090</v>
-      </c>
-      <c r="H13" s="7">
+        <v>32076.195392702044</v>
+      </c>
+      <c r="AE13" s="7">
         <f t="shared" si="30"/>
-        <v>5336</v>
-      </c>
-      <c r="I13" s="7">
+        <v>32748.465124474613</v>
+      </c>
+      <c r="AF13" s="7">
         <f t="shared" si="30"/>
-        <v>5024</v>
-      </c>
-      <c r="J13" s="7">
+        <v>33434.487709121808</v>
+      </c>
+      <c r="AG13" s="7">
         <f t="shared" si="30"/>
-        <v>5550</v>
-      </c>
-      <c r="K13" s="7">
+        <v>34134.541278283526</v>
+      </c>
+      <c r="AH13" s="7">
         <f t="shared" si="30"/>
-        <v>5954</v>
-      </c>
-      <c r="L13" s="7">
+        <v>34848.909556978273</v>
+      </c>
+      <c r="AI13" s="7">
         <f t="shared" si="30"/>
-        <v>5354</v>
-      </c>
-      <c r="M13" s="7">
-        <f t="shared" ref="M13:N13" si="31">M5-M12</f>
-        <v>5938</v>
-      </c>
-      <c r="N13" s="7">
-        <f t="shared" si="31"/>
-        <v>6349</v>
-      </c>
-      <c r="O13" s="7">
-        <f t="shared" ref="O13:R13" si="32">O5-O12</f>
-        <v>6234</v>
-      </c>
-      <c r="P13" s="7">
-        <f t="shared" si="32"/>
-        <v>6421.2099999999991</v>
-      </c>
-      <c r="Q13" s="7">
-        <f t="shared" si="32"/>
-        <v>6456.8799999999992</v>
-      </c>
-      <c r="R13" s="7">
-        <f t="shared" si="32"/>
-        <v>6169.6129999999994</v>
-      </c>
-      <c r="T13" s="7">
-        <f t="shared" ref="T13:Y13" si="33">T5-T12</f>
-        <v>15001</v>
-      </c>
-      <c r="U13" s="7">
-        <f t="shared" si="33"/>
-        <v>14081</v>
-      </c>
-      <c r="V13" s="7">
-        <f t="shared" si="33"/>
-        <v>15804</v>
-      </c>
-      <c r="W13" s="7">
-        <f t="shared" si="33"/>
-        <v>18813</v>
-      </c>
-      <c r="X13" s="7">
-        <f t="shared" si="33"/>
-        <v>21000</v>
-      </c>
-      <c r="Y13" s="7">
-        <f t="shared" si="33"/>
-        <v>23595</v>
-      </c>
-      <c r="Z13" s="7">
-        <f t="shared" ref="Z13:AJ13" si="34">Z5-Z12</f>
-        <v>25281.703000000001</v>
-      </c>
-      <c r="AA13" s="7">
-        <f t="shared" si="34"/>
-        <v>27819.388608000001</v>
-      </c>
-      <c r="AB13" s="7">
-        <f t="shared" si="34"/>
-        <v>29248.172266400001</v>
-      </c>
-      <c r="AC13" s="7">
-        <f t="shared" si="34"/>
-        <v>30133.779951672001</v>
-      </c>
-      <c r="AD13" s="7">
-        <f t="shared" si="34"/>
-        <v>30709.767875415844</v>
-      </c>
-      <c r="AE13" s="7">
-        <f t="shared" si="34"/>
-        <v>31328.052516588417</v>
-      </c>
-      <c r="AF13" s="7">
-        <f t="shared" si="34"/>
-        <v>31957.911087952045</v>
-      </c>
-      <c r="AG13" s="7">
-        <f t="shared" si="34"/>
-        <v>32599.533844265468</v>
-      </c>
-      <c r="AH13" s="7">
-        <f t="shared" si="34"/>
-        <v>33253.113100895396</v>
-      </c>
-      <c r="AI13" s="7">
-        <f t="shared" si="34"/>
-        <v>33918.843204293851</v>
+        <v>35577.881975778204</v>
       </c>
       <c r="AJ13" s="7">
-        <f t="shared" si="34"/>
-        <v>34596.9204990461</v>
+        <f t="shared" si="30"/>
+        <v>36321.753785230743</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
@@ -2470,7 +2433,7 @@
         <v>182</v>
       </c>
       <c r="P14" s="3">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="3">
         <v>185</v>
@@ -2501,47 +2464,47 @@
       </c>
       <c r="Z14" s="3">
         <f>SUM(O14:R14)</f>
-        <v>737</v>
+        <v>710</v>
       </c>
       <c r="AA14" s="3">
-        <f t="shared" ref="AA14:AJ14" si="35">Z14*1.03</f>
-        <v>759.11</v>
+        <f t="shared" ref="AA14:AJ14" si="31">Z14*1.03</f>
+        <v>731.30000000000007</v>
       </c>
       <c r="AB14" s="3">
-        <f t="shared" si="35"/>
-        <v>781.88330000000008</v>
+        <f t="shared" si="31"/>
+        <v>753.23900000000015</v>
       </c>
       <c r="AC14" s="3">
-        <f t="shared" si="35"/>
-        <v>805.33979900000008</v>
+        <f t="shared" si="31"/>
+        <v>775.83617000000015</v>
       </c>
       <c r="AD14" s="3">
-        <f t="shared" si="35"/>
-        <v>829.49999297000011</v>
+        <f t="shared" si="31"/>
+        <v>799.11125510000022</v>
       </c>
       <c r="AE14" s="3">
-        <f t="shared" si="35"/>
-        <v>854.3849927591001</v>
+        <f t="shared" si="31"/>
+        <v>823.08459275300027</v>
       </c>
       <c r="AF14" s="3">
-        <f t="shared" si="35"/>
-        <v>880.01654254187315</v>
+        <f t="shared" si="31"/>
+        <v>847.77713053559035</v>
       </c>
       <c r="AG14" s="3">
-        <f t="shared" si="35"/>
-        <v>906.41703881812941</v>
+        <f t="shared" si="31"/>
+        <v>873.21044445165808</v>
       </c>
       <c r="AH14" s="3">
-        <f t="shared" si="35"/>
-        <v>933.60954998267334</v>
+        <f t="shared" si="31"/>
+        <v>899.40675778520779</v>
       </c>
       <c r="AI14" s="3">
-        <f t="shared" si="35"/>
-        <v>961.61783648215362</v>
+        <f t="shared" si="31"/>
+        <v>926.38896051876407</v>
       </c>
       <c r="AJ14" s="3">
-        <f t="shared" si="35"/>
-        <v>990.46637157661826</v>
+        <f t="shared" si="31"/>
+        <v>954.18062933432702</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
@@ -2588,7 +2551,7 @@
         <v>-148</v>
       </c>
       <c r="P15" s="3">
-        <v>-200</v>
+        <v>-161</v>
       </c>
       <c r="Q15" s="3">
         <v>-200</v>
@@ -2619,47 +2582,47 @@
       </c>
       <c r="Z15" s="3">
         <f>SUM(O15:R15)</f>
-        <v>-748</v>
+        <v>-709</v>
       </c>
       <c r="AA15" s="3">
-        <f t="shared" ref="AA15:AJ15" si="36">Z15*1.01</f>
-        <v>-755.48</v>
+        <f t="shared" ref="AA15:AJ15" si="32">Z15*1.01</f>
+        <v>-716.09</v>
       </c>
       <c r="AB15" s="3">
-        <f t="shared" si="36"/>
-        <v>-763.03480000000002</v>
+        <f t="shared" si="32"/>
+        <v>-723.2509</v>
       </c>
       <c r="AC15" s="3">
-        <f t="shared" si="36"/>
-        <v>-770.66514800000004</v>
+        <f t="shared" si="32"/>
+        <v>-730.48340900000005</v>
       </c>
       <c r="AD15" s="3">
-        <f t="shared" si="36"/>
-        <v>-778.37179948000005</v>
+        <f t="shared" si="32"/>
+        <v>-737.78824309000004</v>
       </c>
       <c r="AE15" s="3">
-        <f t="shared" si="36"/>
-        <v>-786.15551747480004</v>
+        <f t="shared" si="32"/>
+        <v>-745.1661255209001</v>
       </c>
       <c r="AF15" s="3">
-        <f t="shared" si="36"/>
-        <v>-794.01707264954803</v>
+        <f t="shared" si="32"/>
+        <v>-752.61778677610914</v>
       </c>
       <c r="AG15" s="3">
-        <f t="shared" si="36"/>
-        <v>-801.95724337604349</v>
+        <f t="shared" si="32"/>
+        <v>-760.14396464387028</v>
       </c>
       <c r="AH15" s="3">
-        <f t="shared" si="36"/>
-        <v>-809.97681580980395</v>
+        <f t="shared" si="32"/>
+        <v>-767.74540429030901</v>
       </c>
       <c r="AI15" s="3">
-        <f t="shared" si="36"/>
-        <v>-818.07658396790202</v>
+        <f t="shared" si="32"/>
+        <v>-775.42285833321216</v>
       </c>
       <c r="AJ15" s="3">
-        <f t="shared" si="36"/>
-        <v>-826.25734980758102</v>
+        <f t="shared" si="32"/>
+        <v>-783.17708691654434</v>
       </c>
     </row>
     <row r="16" spans="1:36" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2668,136 +2631,136 @@
         <v>22</v>
       </c>
       <c r="C16" s="7">
-        <f t="shared" ref="C16:L16" si="37">C13-C14-C15</f>
+        <f t="shared" ref="C16:L16" si="33">C13-C14-C15</f>
         <v>4897</v>
       </c>
       <c r="D16" s="7">
+        <f t="shared" si="33"/>
+        <v>4542</v>
+      </c>
+      <c r="E16" s="7">
+        <f t="shared" si="33"/>
+        <v>3829</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="33"/>
+        <v>4868</v>
+      </c>
+      <c r="G16" s="7">
+        <f t="shared" si="33"/>
+        <v>4977</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="33"/>
+        <v>5278</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="33"/>
+        <v>5146</v>
+      </c>
+      <c r="J16" s="7">
+        <f t="shared" si="33"/>
+        <v>5636</v>
+      </c>
+      <c r="K16" s="7">
+        <f t="shared" si="33"/>
+        <v>6042</v>
+      </c>
+      <c r="L16" s="7">
+        <f t="shared" si="33"/>
+        <v>5513</v>
+      </c>
+      <c r="M16" s="7">
+        <f t="shared" ref="M16:N16" si="34">M13-M14-M15</f>
+        <v>5989</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="34"/>
+        <v>6372</v>
+      </c>
+      <c r="O16" s="7">
+        <f t="shared" ref="O16:R16" si="35">O13-O14-O15</f>
+        <v>6200</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" si="35"/>
+        <v>5438</v>
+      </c>
+      <c r="Q16" s="7">
+        <f t="shared" si="35"/>
+        <v>5489.8599999999988</v>
+      </c>
+      <c r="R16" s="7">
+        <f t="shared" si="35"/>
+        <v>6186.6329999999998</v>
+      </c>
+      <c r="T16" s="7">
+        <f t="shared" ref="T16:Z16" si="36">T13-T14-T15</f>
+        <v>14884</v>
+      </c>
+      <c r="U16" s="7">
+        <f t="shared" si="36"/>
+        <v>13790</v>
+      </c>
+      <c r="V16" s="7">
+        <f t="shared" si="36"/>
+        <v>16063</v>
+      </c>
+      <c r="W16" s="7">
+        <f t="shared" si="36"/>
+        <v>18136</v>
+      </c>
+      <c r="X16" s="7">
+        <f t="shared" si="36"/>
+        <v>21037</v>
+      </c>
+      <c r="Y16" s="7">
+        <f t="shared" si="36"/>
+        <v>23916</v>
+      </c>
+      <c r="Z16" s="7">
+        <f t="shared" si="36"/>
+        <v>23314.492999999999</v>
+      </c>
+      <c r="AA16" s="7">
+        <f t="shared" ref="AA16:AJ16" si="37">AA13-AA14-AA15</f>
+        <v>28998.540308000003</v>
+      </c>
+      <c r="AB16" s="7">
         <f t="shared" si="37"/>
-        <v>4542</v>
-      </c>
-      <c r="E16" s="7">
+        <v>30482.140503400002</v>
+      </c>
+      <c r="AC16" s="7">
         <f t="shared" si="37"/>
-        <v>3829</v>
-      </c>
-      <c r="F16" s="7">
+        <v>31401.897624002006</v>
+      </c>
+      <c r="AD16" s="7">
         <f t="shared" si="37"/>
-        <v>4868</v>
-      </c>
-      <c r="G16" s="7">
+        <v>32014.872380692042</v>
+      </c>
+      <c r="AE16" s="7">
         <f t="shared" si="37"/>
-        <v>4977</v>
-      </c>
-      <c r="H16" s="7">
+        <v>32670.546657242514</v>
+      </c>
+      <c r="AF16" s="7">
         <f t="shared" si="37"/>
-        <v>5278</v>
-      </c>
-      <c r="I16" s="7">
+        <v>33339.328365362329</v>
+      </c>
+      <c r="AG16" s="7">
         <f t="shared" si="37"/>
-        <v>5146</v>
-      </c>
-      <c r="J16" s="7">
+        <v>34021.474798475741</v>
+      </c>
+      <c r="AH16" s="7">
         <f t="shared" si="37"/>
-        <v>5636</v>
-      </c>
-      <c r="K16" s="7">
+        <v>34717.248203483374</v>
+      </c>
+      <c r="AI16" s="7">
         <f t="shared" si="37"/>
-        <v>6042</v>
-      </c>
-      <c r="L16" s="7">
+        <v>35426.915873592654</v>
+      </c>
+      <c r="AJ16" s="7">
         <f t="shared" si="37"/>
-        <v>5513</v>
-      </c>
-      <c r="M16" s="7">
-        <f t="shared" ref="M16:N16" si="38">M13-M14-M15</f>
-        <v>5989</v>
-      </c>
-      <c r="N16" s="7">
-        <f t="shared" si="38"/>
-        <v>6372</v>
-      </c>
-      <c r="O16" s="7">
-        <f t="shared" ref="O16:R16" si="39">O13-O14-O15</f>
-        <v>6200</v>
-      </c>
-      <c r="P16" s="7">
-        <f t="shared" si="39"/>
-        <v>6436.2099999999991</v>
-      </c>
-      <c r="Q16" s="7">
-        <f t="shared" si="39"/>
-        <v>6471.8799999999992</v>
-      </c>
-      <c r="R16" s="7">
-        <f t="shared" si="39"/>
-        <v>6184.6129999999994</v>
-      </c>
-      <c r="T16" s="7">
-        <f t="shared" ref="T16:Z16" si="40">T13-T14-T15</f>
-        <v>14884</v>
-      </c>
-      <c r="U16" s="7">
-        <f t="shared" si="40"/>
-        <v>13790</v>
-      </c>
-      <c r="V16" s="7">
-        <f t="shared" si="40"/>
-        <v>16063</v>
-      </c>
-      <c r="W16" s="7">
-        <f t="shared" si="40"/>
-        <v>18136</v>
-      </c>
-      <c r="X16" s="7">
-        <f t="shared" si="40"/>
-        <v>21037</v>
-      </c>
-      <c r="Y16" s="7">
-        <f t="shared" si="40"/>
-        <v>23916</v>
-      </c>
-      <c r="Z16" s="7">
-        <f t="shared" si="40"/>
-        <v>25292.703000000001</v>
-      </c>
-      <c r="AA16" s="7">
-        <f t="shared" ref="AA16:AJ16" si="41">AA13-AA14-AA15</f>
-        <v>27815.758608</v>
-      </c>
-      <c r="AB16" s="7">
-        <f t="shared" si="41"/>
-        <v>29229.323766400001</v>
-      </c>
-      <c r="AC16" s="7">
-        <f t="shared" si="41"/>
-        <v>30099.105300671999</v>
-      </c>
-      <c r="AD16" s="7">
-        <f t="shared" si="41"/>
-        <v>30658.639681925844</v>
-      </c>
-      <c r="AE16" s="7">
-        <f t="shared" si="41"/>
-        <v>31259.823041304116</v>
-      </c>
-      <c r="AF16" s="7">
-        <f t="shared" si="41"/>
-        <v>31871.911618059719</v>
-      </c>
-      <c r="AG16" s="7">
-        <f t="shared" si="41"/>
-        <v>32495.074048823382</v>
-      </c>
-      <c r="AH16" s="7">
-        <f t="shared" si="41"/>
-        <v>33129.480366722528</v>
-      </c>
-      <c r="AI16" s="7">
-        <f t="shared" si="41"/>
-        <v>33775.301951779598</v>
-      </c>
-      <c r="AJ16" s="7">
-        <f t="shared" si="41"/>
-        <v>34432.711477277058</v>
+        <v>36150.750242812959</v>
       </c>
     </row>
     <row r="17" spans="1:147" x14ac:dyDescent="0.3">
@@ -2844,16 +2807,15 @@
         <v>1081</v>
       </c>
       <c r="P17" s="3">
-        <f>P16*0.17</f>
-        <v>1094.1557</v>
+        <v>861</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" ref="Q17:R17" si="42">Q16*0.17</f>
-        <v>1100.2195999999999</v>
+        <f t="shared" ref="Q17:R17" si="38">Q16*0.17</f>
+        <v>933.2761999999999</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="42"/>
-        <v>1051.3842099999999</v>
+        <f t="shared" si="38"/>
+        <v>1051.7276100000001</v>
       </c>
       <c r="T17" s="3">
         <v>2804</v>
@@ -2878,47 +2840,47 @@
       </c>
       <c r="Z17" s="3">
         <f>SUM(O17:R17)</f>
-        <v>4326.7595099999999</v>
+        <v>3927.0038100000002</v>
       </c>
       <c r="AA17" s="3">
-        <f t="shared" ref="AA17:AJ17" si="43">AA16*0.18</f>
-        <v>5006.8365494399995</v>
+        <f t="shared" ref="AA17:AJ17" si="39">AA16*0.18</f>
+        <v>5219.7372554400008</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" si="43"/>
-        <v>5261.2782779520003</v>
+        <f t="shared" si="39"/>
+        <v>5486.7852906119997</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" si="43"/>
-        <v>5417.8389541209599</v>
+        <f t="shared" si="39"/>
+        <v>5652.3415723203607</v>
       </c>
       <c r="AD17" s="3">
-        <f t="shared" si="43"/>
-        <v>5518.5551427466517</v>
+        <f t="shared" si="39"/>
+        <v>5762.6770285245675</v>
       </c>
       <c r="AE17" s="3">
-        <f t="shared" si="43"/>
-        <v>5626.768147434741</v>
+        <f t="shared" si="39"/>
+        <v>5880.6983983036525</v>
       </c>
       <c r="AF17" s="3">
-        <f t="shared" si="43"/>
-        <v>5736.9440912507489</v>
+        <f t="shared" si="39"/>
+        <v>6001.0791057652186</v>
       </c>
       <c r="AG17" s="3">
-        <f t="shared" si="43"/>
-        <v>5849.1133287882085</v>
+        <f t="shared" si="39"/>
+        <v>6123.8654637256332</v>
       </c>
       <c r="AH17" s="3">
-        <f t="shared" si="43"/>
-        <v>5963.3064660100545</v>
+        <f t="shared" si="39"/>
+        <v>6249.1046766270074</v>
       </c>
       <c r="AI17" s="3">
-        <f t="shared" si="43"/>
-        <v>6079.5543513203274</v>
+        <f t="shared" si="39"/>
+        <v>6376.8448572466777</v>
       </c>
       <c r="AJ17" s="3">
-        <f t="shared" si="43"/>
-        <v>6197.8880659098704</v>
+        <f t="shared" si="39"/>
+        <v>6507.135043706332</v>
       </c>
     </row>
     <row r="18" spans="1:147" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -2927,580 +2889,580 @@
         <v>24</v>
       </c>
       <c r="C18" s="7">
-        <f t="shared" ref="C18:L18" si="44">C16-C17</f>
+        <f t="shared" ref="C18:L18" si="40">C16-C17</f>
         <v>4059</v>
       </c>
       <c r="D18" s="7">
+        <f t="shared" si="40"/>
+        <v>3647</v>
+      </c>
+      <c r="E18" s="7">
+        <f t="shared" si="40"/>
+        <v>3411</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="40"/>
+        <v>3940</v>
+      </c>
+      <c r="G18" s="7">
+        <f t="shared" si="40"/>
+        <v>4179</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="40"/>
+        <v>4257</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="40"/>
+        <v>4156</v>
+      </c>
+      <c r="J18" s="7">
+        <f t="shared" si="40"/>
+        <v>4681</v>
+      </c>
+      <c r="K18" s="7">
+        <f t="shared" si="40"/>
+        <v>4890</v>
+      </c>
+      <c r="L18" s="7">
+        <f t="shared" si="40"/>
+        <v>4663</v>
+      </c>
+      <c r="M18" s="7">
+        <f t="shared" ref="M18:O18" si="41">M16-M17</f>
+        <v>4872</v>
+      </c>
+      <c r="N18" s="7">
+        <f t="shared" si="41"/>
+        <v>5318</v>
+      </c>
+      <c r="O18" s="7">
+        <f t="shared" si="41"/>
+        <v>5119</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" ref="P18:R18" si="42">P16-P17</f>
+        <v>4577</v>
+      </c>
+      <c r="Q18" s="7">
+        <f t="shared" si="42"/>
+        <v>4556.5837999999985</v>
+      </c>
+      <c r="R18" s="7">
+        <f t="shared" si="42"/>
+        <v>5134.9053899999999</v>
+      </c>
+      <c r="T18" s="7">
+        <f t="shared" ref="T18:Z18" si="43">T16-T17</f>
+        <v>12080</v>
+      </c>
+      <c r="U18" s="7">
+        <f t="shared" si="43"/>
+        <v>10866</v>
+      </c>
+      <c r="V18" s="7">
+        <f t="shared" si="43"/>
+        <v>12311</v>
+      </c>
+      <c r="W18" s="7">
+        <f t="shared" si="43"/>
+        <v>15057</v>
+      </c>
+      <c r="X18" s="7">
+        <f t="shared" si="43"/>
+        <v>17273</v>
+      </c>
+      <c r="Y18" s="7">
+        <f t="shared" si="43"/>
+        <v>19743</v>
+      </c>
+      <c r="Z18" s="7">
+        <f t="shared" si="43"/>
+        <v>19387.48919</v>
+      </c>
+      <c r="AA18" s="7">
+        <f t="shared" ref="AA18:AJ18" si="44">AA16-AA17</f>
+        <v>23778.803052560004</v>
+      </c>
+      <c r="AB18" s="7">
         <f t="shared" si="44"/>
-        <v>3647</v>
-      </c>
-      <c r="E18" s="7">
+        <v>24995.355212788003</v>
+      </c>
+      <c r="AC18" s="7">
         <f t="shared" si="44"/>
-        <v>3411</v>
-      </c>
-      <c r="F18" s="7">
+        <v>25749.556051681644</v>
+      </c>
+      <c r="AD18" s="7">
         <f t="shared" si="44"/>
-        <v>3940</v>
-      </c>
-      <c r="G18" s="7">
+        <v>26252.195352167473</v>
+      </c>
+      <c r="AE18" s="7">
         <f t="shared" si="44"/>
-        <v>4179</v>
-      </c>
-      <c r="H18" s="7">
+        <v>26789.848258938862</v>
+      </c>
+      <c r="AF18" s="7">
         <f t="shared" si="44"/>
-        <v>4257</v>
-      </c>
-      <c r="I18" s="7">
+        <v>27338.249259597113</v>
+      </c>
+      <c r="AG18" s="7">
         <f t="shared" si="44"/>
-        <v>4156</v>
-      </c>
-      <c r="J18" s="7">
+        <v>27897.609334750108</v>
+      </c>
+      <c r="AH18" s="7">
         <f t="shared" si="44"/>
-        <v>4681</v>
-      </c>
-      <c r="K18" s="7">
+        <v>28468.143526856365</v>
+      </c>
+      <c r="AI18" s="7">
         <f t="shared" si="44"/>
-        <v>4890</v>
-      </c>
-      <c r="L18" s="7">
+        <v>29050.071016345977</v>
+      </c>
+      <c r="AJ18" s="7">
         <f t="shared" si="44"/>
-        <v>4663</v>
-      </c>
-      <c r="M18" s="7">
-        <f t="shared" ref="M18:O18" si="45">M16-M17</f>
-        <v>4872</v>
-      </c>
-      <c r="N18" s="7">
-        <f t="shared" si="45"/>
-        <v>5318</v>
-      </c>
-      <c r="O18" s="7">
-        <f t="shared" si="45"/>
-        <v>5119</v>
-      </c>
-      <c r="P18" s="7">
-        <f t="shared" ref="P18:R18" si="46">P16-P17</f>
-        <v>5342.0542999999989</v>
-      </c>
-      <c r="Q18" s="7">
-        <f t="shared" si="46"/>
-        <v>5371.6603999999988</v>
-      </c>
-      <c r="R18" s="7">
-        <f t="shared" si="46"/>
-        <v>5133.2287899999992</v>
-      </c>
-      <c r="T18" s="7">
-        <f t="shared" ref="T18:Z18" si="47">T16-T17</f>
-        <v>12080</v>
-      </c>
-      <c r="U18" s="7">
-        <f t="shared" si="47"/>
-        <v>10866</v>
-      </c>
-      <c r="V18" s="7">
-        <f t="shared" si="47"/>
-        <v>12311</v>
-      </c>
-      <c r="W18" s="7">
-        <f t="shared" si="47"/>
-        <v>15057</v>
-      </c>
-      <c r="X18" s="7">
-        <f t="shared" si="47"/>
-        <v>17273</v>
-      </c>
-      <c r="Y18" s="7">
-        <f t="shared" si="47"/>
-        <v>19743</v>
-      </c>
-      <c r="Z18" s="7">
-        <f t="shared" si="47"/>
-        <v>20965.943490000001</v>
-      </c>
-      <c r="AA18" s="7">
-        <f t="shared" ref="AA18:AJ18" si="48">AA16-AA17</f>
-        <v>22808.922058560001</v>
-      </c>
-      <c r="AB18" s="7">
-        <f t="shared" si="48"/>
-        <v>23968.045488447999</v>
-      </c>
-      <c r="AC18" s="7">
-        <f t="shared" si="48"/>
-        <v>24681.266346551041</v>
-      </c>
-      <c r="AD18" s="7">
-        <f t="shared" si="48"/>
-        <v>25140.084539179192</v>
-      </c>
-      <c r="AE18" s="7">
-        <f t="shared" si="48"/>
-        <v>25633.054893869376</v>
-      </c>
-      <c r="AF18" s="7">
-        <f t="shared" si="48"/>
-        <v>26134.96752680897</v>
-      </c>
-      <c r="AG18" s="7">
-        <f t="shared" si="48"/>
-        <v>26645.960720035175</v>
-      </c>
-      <c r="AH18" s="7">
-        <f t="shared" si="48"/>
-        <v>27166.173900712474</v>
-      </c>
-      <c r="AI18" s="7">
-        <f t="shared" si="48"/>
-        <v>27695.747600459272</v>
-      </c>
-      <c r="AJ18" s="7">
-        <f t="shared" si="48"/>
-        <v>28234.823411367186</v>
+        <v>29643.615199106629</v>
       </c>
       <c r="AK18" s="6">
         <f>AJ18+($AN$23*AJ18)</f>
-        <v>27952.475177253513</v>
+        <v>29347.179047115562</v>
       </c>
       <c r="AL18" s="6">
-        <f t="shared" ref="AL18:CW18" si="49">AK18+($AN$23*AK18)</f>
-        <v>27672.950425480976</v>
+        <f t="shared" ref="AL18:CW18" si="45">AK18+($AN$23*AK18)</f>
+        <v>29053.707256644408</v>
       </c>
       <c r="AM18" s="6">
-        <f t="shared" si="49"/>
-        <v>27396.220921226166</v>
+        <f t="shared" si="45"/>
+        <v>28763.170184077964</v>
       </c>
       <c r="AN18" s="6">
-        <f t="shared" si="49"/>
-        <v>27122.258712013903</v>
+        <f t="shared" si="45"/>
+        <v>28475.538482237185</v>
       </c>
       <c r="AO18" s="6">
-        <f t="shared" si="49"/>
-        <v>26851.036124893762</v>
+        <f t="shared" si="45"/>
+        <v>28190.783097414813</v>
       </c>
       <c r="AP18" s="6">
-        <f t="shared" si="49"/>
-        <v>26582.525763644826</v>
+        <f t="shared" si="45"/>
+        <v>27908.875266440664</v>
       </c>
       <c r="AQ18" s="6">
-        <f t="shared" si="49"/>
-        <v>26316.700506008379</v>
+        <f t="shared" si="45"/>
+        <v>27629.786513776256</v>
       </c>
       <c r="AR18" s="6">
-        <f t="shared" si="49"/>
-        <v>26053.533500948295</v>
+        <f t="shared" si="45"/>
+        <v>27353.488648638493</v>
       </c>
       <c r="AS18" s="6">
-        <f t="shared" si="49"/>
-        <v>25792.99816593881</v>
+        <f t="shared" si="45"/>
+        <v>27079.953762152109</v>
       </c>
       <c r="AT18" s="6">
-        <f t="shared" si="49"/>
-        <v>25535.068184279422</v>
+        <f t="shared" si="45"/>
+        <v>26809.154224530586</v>
       </c>
       <c r="AU18" s="6">
-        <f t="shared" si="49"/>
-        <v>25279.717502436626</v>
+        <f t="shared" si="45"/>
+        <v>26541.062682285279</v>
       </c>
       <c r="AV18" s="6">
-        <f t="shared" si="49"/>
-        <v>25026.920327412259</v>
+        <f t="shared" si="45"/>
+        <v>26275.652055462426</v>
       </c>
       <c r="AW18" s="6">
-        <f t="shared" si="49"/>
-        <v>24776.651124138138</v>
+        <f t="shared" si="45"/>
+        <v>26012.895534907802</v>
       </c>
       <c r="AX18" s="6">
-        <f t="shared" si="49"/>
-        <v>24528.884612896756</v>
+        <f t="shared" si="45"/>
+        <v>25752.766579558724</v>
       </c>
       <c r="AY18" s="6">
-        <f t="shared" si="49"/>
-        <v>24283.59576676779</v>
+        <f t="shared" si="45"/>
+        <v>25495.238913763136</v>
       </c>
       <c r="AZ18" s="6">
-        <f t="shared" si="49"/>
-        <v>24040.759809100113</v>
+        <f t="shared" si="45"/>
+        <v>25240.286524625506</v>
       </c>
       <c r="BA18" s="6">
-        <f t="shared" si="49"/>
-        <v>23800.352211009111</v>
+        <f t="shared" si="45"/>
+        <v>24987.883659379251</v>
       </c>
       <c r="BB18" s="6">
-        <f t="shared" si="49"/>
-        <v>23562.348688899019</v>
+        <f t="shared" si="45"/>
+        <v>24738.00482278546</v>
       </c>
       <c r="BC18" s="6">
-        <f t="shared" si="49"/>
-        <v>23326.725202010028</v>
+        <f t="shared" si="45"/>
+        <v>24490.624774557607</v>
       </c>
       <c r="BD18" s="6">
-        <f t="shared" si="49"/>
-        <v>23093.457949989926</v>
+        <f t="shared" si="45"/>
+        <v>24245.71852681203</v>
       </c>
       <c r="BE18" s="6">
-        <f t="shared" si="49"/>
-        <v>22862.523370490027</v>
+        <f t="shared" si="45"/>
+        <v>24003.261341543908</v>
       </c>
       <c r="BF18" s="6">
-        <f t="shared" si="49"/>
-        <v>22633.898136785127</v>
+        <f t="shared" si="45"/>
+        <v>23763.22872812847</v>
       </c>
       <c r="BG18" s="6">
-        <f t="shared" si="49"/>
-        <v>22407.559155417275</v>
+        <f t="shared" si="45"/>
+        <v>23525.596440847185</v>
       </c>
       <c r="BH18" s="6">
-        <f t="shared" si="49"/>
-        <v>22183.483563863101</v>
+        <f t="shared" si="45"/>
+        <v>23290.340476438712</v>
       </c>
       <c r="BI18" s="6">
-        <f t="shared" si="49"/>
-        <v>21961.648728224471</v>
+        <f t="shared" si="45"/>
+        <v>23057.437071674325</v>
       </c>
       <c r="BJ18" s="6">
-        <f t="shared" si="49"/>
-        <v>21742.032240942226</v>
+        <f t="shared" si="45"/>
+        <v>22826.862700957583</v>
       </c>
       <c r="BK18" s="6">
-        <f t="shared" si="49"/>
-        <v>21524.611918532803</v>
+        <f t="shared" si="45"/>
+        <v>22598.594073948007</v>
       </c>
       <c r="BL18" s="6">
-        <f t="shared" si="49"/>
-        <v>21309.365799347474</v>
+        <f t="shared" si="45"/>
+        <v>22372.608133208527</v>
       </c>
       <c r="BM18" s="6">
-        <f t="shared" si="49"/>
-        <v>21096.272141353998</v>
+        <f t="shared" si="45"/>
+        <v>22148.882051876441</v>
       </c>
       <c r="BN18" s="6">
-        <f t="shared" si="49"/>
-        <v>20885.309419940459</v>
+        <f t="shared" si="45"/>
+        <v>21927.393231357677</v>
       </c>
       <c r="BO18" s="6">
-        <f t="shared" si="49"/>
-        <v>20676.456325741055</v>
+        <f t="shared" si="45"/>
+        <v>21708.119299044101</v>
       </c>
       <c r="BP18" s="6">
-        <f t="shared" si="49"/>
-        <v>20469.691762483646</v>
+        <f t="shared" si="45"/>
+        <v>21491.03810605366</v>
       </c>
       <c r="BQ18" s="6">
-        <f t="shared" si="49"/>
-        <v>20264.994844858811</v>
+        <f t="shared" si="45"/>
+        <v>21276.127724993123</v>
       </c>
       <c r="BR18" s="6">
-        <f t="shared" si="49"/>
-        <v>20062.344896410224</v>
+        <f t="shared" si="45"/>
+        <v>21063.366447743192</v>
       </c>
       <c r="BS18" s="6">
-        <f t="shared" si="49"/>
-        <v>19861.721447446122</v>
+        <f t="shared" si="45"/>
+        <v>20852.732783265761</v>
       </c>
       <c r="BT18" s="6">
-        <f t="shared" si="49"/>
-        <v>19663.104232971662</v>
+        <f t="shared" si="45"/>
+        <v>20644.205455433104</v>
       </c>
       <c r="BU18" s="6">
-        <f t="shared" si="49"/>
-        <v>19466.473190641944</v>
+        <f t="shared" si="45"/>
+        <v>20437.763400878772</v>
       </c>
       <c r="BV18" s="6">
-        <f t="shared" si="49"/>
-        <v>19271.808458735526</v>
+        <f t="shared" si="45"/>
+        <v>20233.385766869986</v>
       </c>
       <c r="BW18" s="6">
-        <f t="shared" si="49"/>
-        <v>19079.090374148171</v>
+        <f t="shared" si="45"/>
+        <v>20031.051909201287</v>
       </c>
       <c r="BX18" s="6">
-        <f t="shared" si="49"/>
-        <v>18888.299470406688</v>
+        <f t="shared" si="45"/>
+        <v>19830.741390109273</v>
       </c>
       <c r="BY18" s="6">
-        <f t="shared" si="49"/>
-        <v>18699.416475702619</v>
+        <f t="shared" si="45"/>
+        <v>19632.43397620818</v>
       </c>
       <c r="BZ18" s="6">
-        <f t="shared" si="49"/>
-        <v>18512.422310945592</v>
+        <f t="shared" si="45"/>
+        <v>19436.109636446097</v>
       </c>
       <c r="CA18" s="6">
-        <f t="shared" si="49"/>
-        <v>18327.298087836138</v>
+        <f t="shared" si="45"/>
+        <v>19241.748540081637</v>
       </c>
       <c r="CB18" s="6">
-        <f t="shared" si="49"/>
-        <v>18144.025106957775</v>
+        <f t="shared" si="45"/>
+        <v>19049.331054680821</v>
       </c>
       <c r="CC18" s="6">
-        <f t="shared" si="49"/>
-        <v>17962.584855888199</v>
+        <f t="shared" si="45"/>
+        <v>18858.837744134013</v>
       </c>
       <c r="CD18" s="6">
-        <f t="shared" si="49"/>
-        <v>17782.959007329318</v>
+        <f t="shared" si="45"/>
+        <v>18670.249366692671</v>
       </c>
       <c r="CE18" s="6">
-        <f t="shared" si="49"/>
-        <v>17605.129417256026</v>
+        <f t="shared" si="45"/>
+        <v>18483.546873025745</v>
       </c>
       <c r="CF18" s="6">
-        <f t="shared" si="49"/>
-        <v>17429.078123083465</v>
+        <f t="shared" si="45"/>
+        <v>18298.711404295489</v>
       </c>
       <c r="CG18" s="6">
-        <f t="shared" si="49"/>
-        <v>17254.787341852632</v>
+        <f t="shared" si="45"/>
+        <v>18115.724290252536</v>
       </c>
       <c r="CH18" s="6">
-        <f t="shared" si="49"/>
-        <v>17082.239468434105</v>
+        <f t="shared" si="45"/>
+        <v>17934.56704735001</v>
       </c>
       <c r="CI18" s="6">
-        <f t="shared" si="49"/>
-        <v>16911.417073749762</v>
+        <f t="shared" si="45"/>
+        <v>17755.22137687651</v>
       </c>
       <c r="CJ18" s="6">
-        <f t="shared" si="49"/>
-        <v>16742.302903012263</v>
+        <f t="shared" si="45"/>
+        <v>17577.669163107745</v>
       </c>
       <c r="CK18" s="6">
-        <f t="shared" si="49"/>
-        <v>16574.87987398214</v>
+        <f t="shared" si="45"/>
+        <v>17401.892471476669</v>
       </c>
       <c r="CL18" s="6">
-        <f t="shared" si="49"/>
-        <v>16409.13107524232</v>
+        <f t="shared" si="45"/>
+        <v>17227.873546761901</v>
       </c>
       <c r="CM18" s="6">
-        <f t="shared" si="49"/>
-        <v>16245.039764489897</v>
+        <f t="shared" si="45"/>
+        <v>17055.594811294282</v>
       </c>
       <c r="CN18" s="6">
-        <f t="shared" si="49"/>
-        <v>16082.589366844997</v>
+        <f t="shared" si="45"/>
+        <v>16885.03886318134</v>
       </c>
       <c r="CO18" s="6">
-        <f t="shared" si="49"/>
-        <v>15921.763473176547</v>
+        <f t="shared" si="45"/>
+        <v>16716.188474549526</v>
       </c>
       <c r="CP18" s="6">
-        <f t="shared" si="49"/>
-        <v>15762.545838444781</v>
+        <f t="shared" si="45"/>
+        <v>16549.026589804031</v>
       </c>
       <c r="CQ18" s="6">
-        <f t="shared" si="49"/>
-        <v>15604.920380060334</v>
+        <f t="shared" si="45"/>
+        <v>16383.53632390599</v>
       </c>
       <c r="CR18" s="6">
-        <f t="shared" si="49"/>
-        <v>15448.87117625973</v>
+        <f t="shared" si="45"/>
+        <v>16219.700960666931</v>
       </c>
       <c r="CS18" s="6">
-        <f t="shared" si="49"/>
-        <v>15294.382464497134</v>
+        <f t="shared" si="45"/>
+        <v>16057.503951060262</v>
       </c>
       <c r="CT18" s="6">
-        <f t="shared" si="49"/>
-        <v>15141.438639852162</v>
+        <f t="shared" si="45"/>
+        <v>15896.928911549659</v>
       </c>
       <c r="CU18" s="6">
-        <f t="shared" si="49"/>
-        <v>14990.024253453641</v>
+        <f t="shared" si="45"/>
+        <v>15737.959622434162</v>
       </c>
       <c r="CV18" s="6">
-        <f t="shared" si="49"/>
-        <v>14840.124010919104</v>
+        <f t="shared" si="45"/>
+        <v>15580.58002620982</v>
       </c>
       <c r="CW18" s="6">
-        <f t="shared" si="49"/>
-        <v>14691.722770809913</v>
+        <f t="shared" si="45"/>
+        <v>15424.774225947722</v>
       </c>
       <c r="CX18" s="6">
-        <f t="shared" ref="CX18:EQ18" si="50">CW18+($AN$23*CW18)</f>
-        <v>14544.805543101813</v>
+        <f t="shared" ref="CX18:EQ18" si="46">CW18+($AN$23*CW18)</f>
+        <v>15270.526483688245</v>
       </c>
       <c r="CY18" s="6">
-        <f t="shared" si="50"/>
-        <v>14399.357487670795</v>
+        <f t="shared" si="46"/>
+        <v>15117.821218851363</v>
       </c>
       <c r="CZ18" s="6">
-        <f t="shared" si="50"/>
-        <v>14255.363912794088</v>
+        <f t="shared" si="46"/>
+        <v>14966.643006662849</v>
       </c>
       <c r="DA18" s="6">
-        <f t="shared" si="50"/>
-        <v>14112.810273666148</v>
+        <f t="shared" si="46"/>
+        <v>14816.97657659622</v>
       </c>
       <c r="DB18" s="6">
-        <f t="shared" si="50"/>
-        <v>13971.682170929485</v>
+        <f t="shared" si="46"/>
+        <v>14668.806810830258</v>
       </c>
       <c r="DC18" s="6">
-        <f t="shared" si="50"/>
-        <v>13831.965349220191</v>
+        <f t="shared" si="46"/>
+        <v>14522.118742721956</v>
       </c>
       <c r="DD18" s="6">
-        <f t="shared" si="50"/>
-        <v>13693.645695727988</v>
+        <f t="shared" si="46"/>
+        <v>14376.897555294736</v>
       </c>
       <c r="DE18" s="6">
-        <f t="shared" si="50"/>
-        <v>13556.709238770709</v>
+        <f t="shared" si="46"/>
+        <v>14233.128579741788</v>
       </c>
       <c r="DF18" s="6">
-        <f t="shared" si="50"/>
-        <v>13421.142146383001</v>
+        <f t="shared" si="46"/>
+        <v>14090.79729394437</v>
       </c>
       <c r="DG18" s="6">
-        <f t="shared" si="50"/>
-        <v>13286.930724919172</v>
+        <f t="shared" si="46"/>
+        <v>13949.889321004926</v>
       </c>
       <c r="DH18" s="6">
-        <f t="shared" si="50"/>
-        <v>13154.06141766998</v>
+        <f t="shared" si="46"/>
+        <v>13810.390427794877</v>
       </c>
       <c r="DI18" s="6">
-        <f t="shared" si="50"/>
-        <v>13022.52080349328</v>
+        <f t="shared" si="46"/>
+        <v>13672.286523516928</v>
       </c>
       <c r="DJ18" s="6">
-        <f t="shared" si="50"/>
-        <v>12892.295595458347</v>
+        <f t="shared" si="46"/>
+        <v>13535.563658281759</v>
       </c>
       <c r="DK18" s="6">
-        <f t="shared" si="50"/>
-        <v>12763.372639503763</v>
+        <f t="shared" si="46"/>
+        <v>13400.208021698942</v>
       </c>
       <c r="DL18" s="6">
-        <f t="shared" si="50"/>
-        <v>12635.738913108726</v>
+        <f t="shared" si="46"/>
+        <v>13266.205941481952</v>
       </c>
       <c r="DM18" s="6">
-        <f t="shared" si="50"/>
-        <v>12509.381523977638</v>
+        <f t="shared" si="46"/>
+        <v>13133.543882067133</v>
       </c>
       <c r="DN18" s="6">
-        <f t="shared" si="50"/>
-        <v>12384.287708737862</v>
+        <f t="shared" si="46"/>
+        <v>13002.208443246462</v>
       </c>
       <c r="DO18" s="6">
-        <f t="shared" si="50"/>
-        <v>12260.444831650484</v>
+        <f t="shared" si="46"/>
+        <v>12872.186358813997</v>
       </c>
       <c r="DP18" s="6">
-        <f t="shared" si="50"/>
-        <v>12137.84038333398</v>
+        <f t="shared" si="46"/>
+        <v>12743.464495225857</v>
       </c>
       <c r="DQ18" s="6">
-        <f t="shared" si="50"/>
-        <v>12016.46197950064</v>
+        <f t="shared" si="46"/>
+        <v>12616.029850273599</v>
       </c>
       <c r="DR18" s="6">
-        <f t="shared" si="50"/>
-        <v>11896.297359705633</v>
+        <f t="shared" si="46"/>
+        <v>12489.869551770862</v>
       </c>
       <c r="DS18" s="6">
-        <f t="shared" si="50"/>
-        <v>11777.334386108578</v>
+        <f t="shared" si="46"/>
+        <v>12364.970856253154</v>
       </c>
       <c r="DT18" s="6">
-        <f t="shared" si="50"/>
-        <v>11659.561042247493</v>
+        <f t="shared" si="46"/>
+        <v>12241.321147690622</v>
       </c>
       <c r="DU18" s="6">
-        <f t="shared" si="50"/>
-        <v>11542.965431825018</v>
+        <f t="shared" si="46"/>
+        <v>12118.907936213716</v>
       </c>
       <c r="DV18" s="6">
-        <f t="shared" si="50"/>
-        <v>11427.535777506768</v>
+        <f t="shared" si="46"/>
+        <v>11997.718856851579</v>
       </c>
       <c r="DW18" s="6">
-        <f t="shared" si="50"/>
-        <v>11313.2604197317</v>
+        <f t="shared" si="46"/>
+        <v>11877.741668283064</v>
       </c>
       <c r="DX18" s="6">
-        <f t="shared" si="50"/>
-        <v>11200.127815534383</v>
+        <f t="shared" si="46"/>
+        <v>11758.964251600233</v>
       </c>
       <c r="DY18" s="6">
-        <f t="shared" si="50"/>
-        <v>11088.126537379039</v>
+        <f t="shared" si="46"/>
+        <v>11641.374609084231</v>
       </c>
       <c r="DZ18" s="6">
-        <f t="shared" si="50"/>
-        <v>10977.24527200525</v>
+        <f t="shared" si="46"/>
+        <v>11524.960862993388</v>
       </c>
       <c r="EA18" s="6">
-        <f t="shared" si="50"/>
-        <v>10867.472819285198</v>
+        <f t="shared" si="46"/>
+        <v>11409.711254363454</v>
       </c>
       <c r="EB18" s="6">
-        <f t="shared" si="50"/>
-        <v>10758.798091092345</v>
+        <f t="shared" si="46"/>
+        <v>11295.614141819819</v>
       </c>
       <c r="EC18" s="6">
-        <f t="shared" si="50"/>
-        <v>10651.210110181422</v>
+        <f t="shared" si="46"/>
+        <v>11182.65800040162</v>
       </c>
       <c r="ED18" s="6">
-        <f t="shared" si="50"/>
-        <v>10544.698009079608</v>
+        <f t="shared" si="46"/>
+        <v>11070.831420397604</v>
       </c>
       <c r="EE18" s="6">
-        <f t="shared" si="50"/>
-        <v>10439.251028988812</v>
+        <f t="shared" si="46"/>
+        <v>10960.123106193629</v>
       </c>
       <c r="EF18" s="6">
-        <f t="shared" si="50"/>
-        <v>10334.858518698924</v>
+        <f t="shared" si="46"/>
+        <v>10850.521875131692</v>
       </c>
       <c r="EG18" s="6">
-        <f t="shared" si="50"/>
-        <v>10231.509933511934</v>
+        <f t="shared" si="46"/>
+        <v>10742.016656380374</v>
       </c>
       <c r="EH18" s="6">
-        <f t="shared" si="50"/>
-        <v>10129.194834176815</v>
+        <f t="shared" si="46"/>
+        <v>10634.596489816571</v>
       </c>
       <c r="EI18" s="6">
-        <f t="shared" si="50"/>
-        <v>10027.902885835047</v>
+        <f t="shared" si="46"/>
+        <v>10528.250524918405</v>
       </c>
       <c r="EJ18" s="6">
-        <f t="shared" si="50"/>
-        <v>9927.6238569766956</v>
+        <f t="shared" si="46"/>
+        <v>10422.968019669221</v>
       </c>
       <c r="EK18" s="6">
-        <f t="shared" si="50"/>
-        <v>9828.3476184069295</v>
+        <f t="shared" si="46"/>
+        <v>10318.738339472529</v>
       </c>
       <c r="EL18" s="6">
-        <f t="shared" si="50"/>
-        <v>9730.06414222286</v>
+        <f t="shared" si="46"/>
+        <v>10215.550956077805</v>
       </c>
       <c r="EM18" s="6">
-        <f t="shared" si="50"/>
-        <v>9632.7635008006309</v>
+        <f t="shared" si="46"/>
+        <v>10113.395446517026</v>
       </c>
       <c r="EN18" s="6">
-        <f t="shared" si="50"/>
-        <v>9536.4358657926241</v>
+        <f t="shared" si="46"/>
+        <v>10012.261492051855</v>
       </c>
       <c r="EO18" s="6">
-        <f t="shared" si="50"/>
-        <v>9441.0715071346985</v>
+        <f t="shared" si="46"/>
+        <v>9912.1388771313377</v>
       </c>
       <c r="EP18" s="6">
-        <f t="shared" si="50"/>
-        <v>9346.6607920633523</v>
+        <f t="shared" si="46"/>
+        <v>9813.0174883600248</v>
       </c>
       <c r="EQ18" s="6">
-        <f t="shared" si="50"/>
-        <v>9253.1941841427197</v>
+        <f t="shared" si="46"/>
+        <v>9714.8873134764253</v>
       </c>
     </row>
     <row r="19" spans="1:147" x14ac:dyDescent="0.3">
@@ -3508,43 +3470,43 @@
         <v>1</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:L19" si="51">1574.2+245.5+9.3</f>
+        <f t="shared" ref="C19:L19" si="47">1574.2+245.5+9.3</f>
         <v>1829</v>
       </c>
       <c r="D19" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1829</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1829</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1829</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1829</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1829</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1829</v>
       </c>
       <c r="J19" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1829</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1829</v>
       </c>
       <c r="L19" s="3">
-        <f t="shared" si="51"/>
+        <f t="shared" si="47"/>
         <v>1829</v>
       </c>
       <c r="M19" s="3">
@@ -3559,84 +3521,84 @@
         <v>1857.7</v>
       </c>
       <c r="P19" s="3">
-        <f t="shared" ref="P19:R19" si="52">1723.4+4.8+120.3+9.2</f>
-        <v>1857.7</v>
+        <f>1711+4.8+120.3+9</f>
+        <v>1845.1</v>
       </c>
       <c r="Q19" s="3">
-        <f t="shared" si="52"/>
-        <v>1857.7</v>
+        <f>1711+4.8+120.3+9</f>
+        <v>1845.1</v>
       </c>
       <c r="R19" s="3">
-        <f t="shared" si="52"/>
-        <v>1857.7</v>
+        <f>1711+4.8+120.3+9</f>
+        <v>1845.1</v>
       </c>
       <c r="T19" s="3">
-        <f t="shared" ref="T19:X19" si="53">1574.2+245.5+9.3</f>
+        <f t="shared" ref="T19:X19" si="48">1574.2+245.5+9.3</f>
         <v>1829</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>1829</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>1829</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>1829</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="48"/>
         <v>1829</v>
       </c>
       <c r="Y19" s="3">
-        <f t="shared" ref="Y19" si="54">1728.1+4.8+120.3+9.6</f>
+        <f t="shared" ref="Y19" si="49">1728.1+4.8+120.3+9.6</f>
         <v>1862.7999999999997</v>
       </c>
       <c r="Z19" s="3">
-        <f t="shared" ref="Z19:AJ19" si="55">1723.4+4.8+120.3+9.2</f>
-        <v>1857.7</v>
+        <f t="shared" ref="Z19:AJ19" si="50">1711+4.8+120.3+9</f>
+        <v>1845.1</v>
       </c>
       <c r="AA19" s="3">
-        <f t="shared" si="55"/>
-        <v>1857.7</v>
+        <f t="shared" si="50"/>
+        <v>1845.1</v>
       </c>
       <c r="AB19" s="3">
-        <f t="shared" si="55"/>
-        <v>1857.7</v>
+        <f t="shared" si="50"/>
+        <v>1845.1</v>
       </c>
       <c r="AC19" s="3">
-        <f t="shared" si="55"/>
-        <v>1857.7</v>
+        <f t="shared" si="50"/>
+        <v>1845.1</v>
       </c>
       <c r="AD19" s="3">
-        <f t="shared" si="55"/>
-        <v>1857.7</v>
+        <f t="shared" si="50"/>
+        <v>1845.1</v>
       </c>
       <c r="AE19" s="3">
-        <f t="shared" si="55"/>
-        <v>1857.7</v>
+        <f t="shared" si="50"/>
+        <v>1845.1</v>
       </c>
       <c r="AF19" s="3">
-        <f t="shared" si="55"/>
-        <v>1857.7</v>
+        <f t="shared" si="50"/>
+        <v>1845.1</v>
       </c>
       <c r="AG19" s="3">
-        <f t="shared" si="55"/>
-        <v>1857.7</v>
+        <f t="shared" si="50"/>
+        <v>1845.1</v>
       </c>
       <c r="AH19" s="3">
-        <f t="shared" si="55"/>
-        <v>1857.7</v>
+        <f t="shared" si="50"/>
+        <v>1845.1</v>
       </c>
       <c r="AI19" s="3">
-        <f t="shared" si="55"/>
-        <v>1857.7</v>
+        <f t="shared" si="50"/>
+        <v>1845.1</v>
       </c>
       <c r="AJ19" s="3">
-        <f t="shared" si="55"/>
-        <v>1857.7</v>
+        <f t="shared" si="50"/>
+        <v>1845.1</v>
       </c>
     </row>
     <row r="20" spans="1:147" x14ac:dyDescent="0.3">
@@ -3644,136 +3606,136 @@
         <v>25</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" ref="C20:L20" si="56">C18/C19</f>
+        <f t="shared" ref="C20:L20" si="51">C18/C19</f>
         <v>2.2192454893384364</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>1.9939857845817386</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>1.8649535265172226</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>2.1541826134499726</v>
       </c>
       <c r="G20" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>2.2848551120831053</v>
       </c>
       <c r="H20" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>2.3275013668671405</v>
       </c>
       <c r="I20" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>2.2722799343903772</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>2.5593220338983049</v>
       </c>
       <c r="K20" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>2.6735921268452705</v>
       </c>
       <c r="L20" s="5">
-        <f t="shared" si="56"/>
+        <f t="shared" si="51"/>
         <v>2.5494805904866049</v>
       </c>
       <c r="M20" s="5">
-        <f t="shared" ref="M20:O20" si="57">M18/M19</f>
+        <f t="shared" ref="M20:O20" si="52">M18/M19</f>
         <v>2.6739846322722283</v>
       </c>
       <c r="N20" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>2.854842173072794</v>
       </c>
       <c r="O20" s="5">
-        <f t="shared" si="57"/>
+        <f t="shared" si="52"/>
         <v>2.7555579480002153</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" ref="P20:R20" si="58">P18/P19</f>
-        <v>2.8756280884965273</v>
+        <f t="shared" ref="P20:R20" si="53">P18/P19</f>
+        <v>2.4806243564034469</v>
       </c>
       <c r="Q20" s="5">
-        <f t="shared" si="58"/>
-        <v>2.8915650535608539</v>
+        <f t="shared" si="53"/>
+        <v>2.4695592650804827</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="58"/>
-        <v>2.763217306346557</v>
+        <f t="shared" si="53"/>
+        <v>2.7829957129694867</v>
       </c>
       <c r="T20" s="5">
-        <f t="shared" ref="T20:Z20" si="59">T18/T19</f>
+        <f t="shared" ref="T20:Z20" si="54">T18/T19</f>
         <v>6.6047020229633677</v>
       </c>
       <c r="U20" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>5.9409513395297981</v>
       </c>
       <c r="V20" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>6.7310005467468565</v>
       </c>
       <c r="W20" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>8.2323674138873706</v>
       </c>
       <c r="X20" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>9.4439584472389289</v>
       </c>
       <c r="Y20" s="5">
-        <f t="shared" si="59"/>
+        <f t="shared" si="54"/>
         <v>10.598561305561521</v>
       </c>
       <c r="Z20" s="5">
-        <f t="shared" si="59"/>
-        <v>11.285968396404156</v>
+        <f t="shared" si="54"/>
+        <v>10.507554707061949</v>
       </c>
       <c r="AA20" s="5">
-        <f t="shared" ref="AA20:AJ20" si="60">AA18/AA19</f>
-        <v>12.278043849146794</v>
+        <f t="shared" ref="AA20:AJ20" si="55">AA18/AA19</f>
+        <v>12.887541625147691</v>
       </c>
       <c r="AB20" s="5">
-        <f t="shared" si="60"/>
-        <v>12.902000047611562</v>
+        <f t="shared" si="55"/>
+        <v>13.546883753069213</v>
       </c>
       <c r="AC20" s="5">
-        <f t="shared" si="60"/>
-        <v>13.285926870081843</v>
+        <f t="shared" si="55"/>
+        <v>13.955642540611157</v>
       </c>
       <c r="AD20" s="5">
-        <f t="shared" si="60"/>
-        <v>13.532908725401944</v>
+        <f t="shared" si="55"/>
+        <v>14.228061000578546</v>
       </c>
       <c r="AE20" s="5">
-        <f t="shared" si="60"/>
-        <v>13.798274691214607</v>
+        <f t="shared" si="55"/>
+        <v>14.519455996389823</v>
       </c>
       <c r="AF20" s="5">
-        <f t="shared" si="60"/>
-        <v>14.068454285842154</v>
+        <f t="shared" si="55"/>
+        <v>14.816676201613525</v>
       </c>
       <c r="AG20" s="5">
-        <f t="shared" si="60"/>
-        <v>14.34352194651191</v>
+        <f t="shared" si="55"/>
+        <v>15.119835962685009</v>
       </c>
       <c r="AH20" s="5">
-        <f t="shared" si="60"/>
-        <v>14.623552726873269</v>
+        <f t="shared" si="55"/>
+        <v>15.429051827465377</v>
       </c>
       <c r="AI20" s="5">
-        <f t="shared" si="60"/>
-        <v>14.90862227510323</v>
+        <f t="shared" si="55"/>
+        <v>15.744442586497197</v>
       </c>
       <c r="AJ20" s="5">
-        <f t="shared" si="60"/>
-        <v>15.198806810231568</v>
+        <f t="shared" si="55"/>
+        <v>16.066129315000072</v>
       </c>
     </row>
     <row r="22" spans="1:147" x14ac:dyDescent="0.3">
@@ -3785,47 +3747,47 @@
         <v>0.12423856070264905</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" ref="H22:N22" si="61">H3/D3-1</f>
+        <f t="shared" ref="H22:N22" si="56">H3/D3-1</f>
         <v>0.11072471831965514</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>0.11656357388316141</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>0.1055605496340053</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>8.7953629032258007E-2</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>9.8935504070131408E-2</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>9.5654314908285132E-2</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="56"/>
         <v>0.11708676965965847</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" ref="O22" si="62">O3/K3-1</f>
+        <f t="shared" ref="O22" si="57">O3/K3-1</f>
         <v>0.10145934676858936</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" ref="P22" si="63">P3/L3-1</f>
-        <v>0.1100000000000001</v>
+        <f t="shared" ref="P22" si="58">P3/L3-1</f>
+        <v>9.3333333333333268E-2</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" ref="Q22" si="64">Q3/M3-1</f>
+        <f t="shared" ref="Q22" si="59">Q3/M3-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" ref="R22" si="65">R3/N3-1</f>
+        <f t="shared" ref="R22" si="60">R3/N3-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="T22" s="9"/>
@@ -3834,63 +3796,63 @@
         <v>-4.92231361796579E-2</v>
       </c>
       <c r="V22" s="9">
-        <f t="shared" ref="V22:AJ22" si="66">V3/U3-1</f>
+        <f t="shared" ref="V22:AJ22" si="61">V3/U3-1</f>
         <v>0.10340565778632249</v>
       </c>
       <c r="W22" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>0.21593030491599263</v>
       </c>
       <c r="X22" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>0.11405663596042315</v>
       </c>
       <c r="Y22" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>0.10023581294214923</v>
       </c>
       <c r="Z22" s="9">
-        <f t="shared" si="66"/>
-        <v>9.4762567499860895E-2</v>
+        <f t="shared" si="61"/>
+        <v>9.0691699604743103E-2</v>
       </c>
       <c r="AA22" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AB22" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AC22" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AD22" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AE22" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AF22" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AG22" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AH22" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AI22" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AJ22" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="61"/>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -3899,19 +3861,19 @@
         <v>40</v>
       </c>
       <c r="C23" s="9">
-        <f t="shared" ref="C23:F23" si="67">C5/C3</f>
+        <f t="shared" ref="C23:F23" si="62">C5/C3</f>
         <v>0.84062898427539312</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>0.82946167756294342</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>0.82364261168384878</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="62"/>
         <v>0.82586361885193271</v>
       </c>
       <c r="G23" s="9">
@@ -3919,115 +3881,115 @@
         <v>0.8315272177419355</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" ref="H23:N23" si="68">H5/H3</f>
+        <f t="shared" ref="H23:N23" si="63">H5/H3</f>
         <v>0.81026925485284906</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0.81767819771020556</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0.82599605064467418</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0.82870048644892291</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0.81732193732193736</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0.82325842696629215</v>
       </c>
       <c r="N23" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="63"/>
         <v>0.83269210772590208</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" ref="O23:R23" si="69">O5/O3</f>
+        <f t="shared" ref="O23:R23" si="64">O5/O3</f>
         <v>0.80935856992639332</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="69"/>
+        <f t="shared" si="64"/>
+        <v>0.82728788826349797</v>
+      </c>
+      <c r="Q23" s="9">
+        <f t="shared" si="64"/>
         <v>0.82</v>
       </c>
-      <c r="Q23" s="9">
-        <f t="shared" si="69"/>
+      <c r="R23" s="9">
+        <f t="shared" si="64"/>
         <v>0.82</v>
       </c>
-      <c r="R23" s="9">
-        <f t="shared" si="69"/>
-        <v>0.82</v>
-      </c>
       <c r="T23" s="9">
-        <f t="shared" ref="T23:AJ23" si="70">T5/T3</f>
+        <f t="shared" ref="T23:AJ23" si="65">T5/T3</f>
         <v>0.85011098054576317</v>
       </c>
       <c r="U23" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.82674173761787051</v>
       </c>
       <c r="V23" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.82410288321924907</v>
       </c>
       <c r="W23" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.82975093824633228</v>
       </c>
       <c r="X23" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.82142529017241905</v>
       </c>
       <c r="Y23" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.82564159661526471</v>
       </c>
       <c r="Z23" s="9">
-        <f t="shared" si="70"/>
-        <v>0.81742692937073669</v>
+        <f t="shared" si="65"/>
+        <v>0.81920171885650817</v>
       </c>
       <c r="AA23" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.83</v>
       </c>
       <c r="AB23" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.83</v>
       </c>
       <c r="AC23" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.83</v>
       </c>
       <c r="AD23" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
+        <v>0.82999999999999985</v>
+      </c>
+      <c r="AE23" s="9">
+        <f t="shared" si="65"/>
+        <v>0.83</v>
+      </c>
+      <c r="AF23" s="9">
+        <f t="shared" si="65"/>
+        <v>0.83</v>
+      </c>
+      <c r="AG23" s="9">
+        <f t="shared" si="65"/>
+        <v>0.83</v>
+      </c>
+      <c r="AH23" s="9">
+        <f t="shared" si="65"/>
         <v>0.83000000000000007</v>
       </c>
-      <c r="AE23" s="9">
-        <f t="shared" si="70"/>
+      <c r="AI23" s="9">
+        <f t="shared" si="65"/>
         <v>0.83</v>
       </c>
-      <c r="AF23" s="9">
-        <f t="shared" si="70"/>
-        <v>0.83</v>
-      </c>
-      <c r="AG23" s="9">
-        <f t="shared" si="70"/>
-        <v>0.83</v>
-      </c>
-      <c r="AH23" s="9">
-        <f t="shared" si="70"/>
-        <v>0.83</v>
-      </c>
-      <c r="AI23" s="9">
-        <f t="shared" si="70"/>
-        <v>0.83000000000000007</v>
-      </c>
       <c r="AJ23" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="65"/>
         <v>0.83</v>
       </c>
       <c r="AM23" t="s">
@@ -4042,19 +4004,19 @@
         <v>41</v>
       </c>
       <c r="C24" s="9">
-        <f t="shared" ref="C24:F24" si="71">C6/C3</f>
+        <f t="shared" ref="C24:F24" si="66">C6/C3</f>
         <v>3.9665675024791049E-2</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="66"/>
         <v>4.3677841146195578E-2</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="66"/>
         <v>4.3024054982817868E-2</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="66"/>
         <v>5.5091819699499167E-2</v>
       </c>
       <c r="G24" s="9">
@@ -4062,116 +4024,116 @@
         <v>4.1834677419354836E-2</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" ref="H24:N24" si="72">H6/H3</f>
+        <f t="shared" ref="H24:N24" si="67">H6/H3</f>
         <v>3.8697557921102063E-2</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>3.6562846239074236E-2</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>4.6811476361946797E-2</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>3.3935603428306697E-2</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>3.8518518518518521E-2</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>4.2471910112359554E-2</v>
       </c>
       <c r="N24" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="67"/>
         <v>5.7294374545076431E-2</v>
       </c>
       <c r="O24" s="9">
-        <f t="shared" ref="O24:R24" si="73">O6/O3</f>
+        <f t="shared" ref="O24:R24" si="68">O6/O3</f>
         <v>3.2176656151419555E-2</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="68"/>
+        <v>3.9712320200125079E-2</v>
+      </c>
+      <c r="Q24" s="9">
+        <f t="shared" si="68"/>
         <v>0.04</v>
       </c>
-      <c r="Q24" s="9">
-        <f t="shared" si="73"/>
+      <c r="R24" s="9">
+        <f t="shared" si="68"/>
+        <v>5.9999999999999991E-2</v>
+      </c>
+      <c r="T24" s="9">
+        <f t="shared" ref="T24:AJ24" si="69">T6/T3</f>
+        <v>4.8091569830700266E-2</v>
+      </c>
+      <c r="U24" s="9">
+        <f t="shared" si="69"/>
+        <v>4.4447496109127529E-2</v>
+      </c>
+      <c r="V24" s="9">
+        <f t="shared" si="69"/>
+        <v>4.7127152043144577E-2</v>
+      </c>
+      <c r="W24" s="9">
+        <f t="shared" si="69"/>
+        <v>4.5581712726032071E-2</v>
+      </c>
+      <c r="X24" s="9">
+        <f t="shared" si="69"/>
+        <v>4.1068202002878758E-2</v>
+      </c>
+      <c r="Y24" s="9">
+        <f t="shared" si="69"/>
+        <v>4.3422590881255912E-2</v>
+      </c>
+      <c r="Z24" s="9">
+        <f t="shared" si="69"/>
+        <v>4.3283053700995215E-2</v>
+      </c>
+      <c r="AA24" s="9">
+        <f t="shared" si="69"/>
         <v>0.04</v>
       </c>
-      <c r="R24" s="9">
-        <f t="shared" si="73"/>
-        <v>5.9999999999999991E-2</v>
-      </c>
-      <c r="T24" s="9">
-        <f t="shared" ref="T24:AJ24" si="74">T6/T3</f>
-        <v>4.8091569830700266E-2</v>
-      </c>
-      <c r="U24" s="9">
-        <f t="shared" si="74"/>
-        <v>4.4447496109127529E-2</v>
-      </c>
-      <c r="V24" s="9">
-        <f t="shared" si="74"/>
-        <v>4.7127152043144577E-2</v>
-      </c>
-      <c r="W24" s="9">
-        <f t="shared" si="74"/>
-        <v>4.5581712726032071E-2</v>
-      </c>
-      <c r="X24" s="9">
-        <f t="shared" si="74"/>
-        <v>4.1068202002878758E-2</v>
-      </c>
-      <c r="Y24" s="9">
-        <f t="shared" si="74"/>
-        <v>4.3422590881255912E-2</v>
-      </c>
-      <c r="Z24" s="9">
-        <f t="shared" si="74"/>
-        <v>4.3341020339462258E-2</v>
-      </c>
-      <c r="AA24" s="9">
-        <f t="shared" si="74"/>
+      <c r="AB24" s="9">
+        <f t="shared" si="69"/>
         <v>0.04</v>
       </c>
-      <c r="AB24" s="9">
-        <f t="shared" si="74"/>
+      <c r="AC24" s="9">
+        <f t="shared" si="69"/>
         <v>0.04</v>
       </c>
-      <c r="AC24" s="9">
-        <f t="shared" si="74"/>
+      <c r="AD24" s="9">
+        <f t="shared" si="69"/>
         <v>0.04</v>
       </c>
-      <c r="AD24" s="9">
-        <f t="shared" si="74"/>
+      <c r="AE24" s="9">
+        <f t="shared" si="69"/>
         <v>0.04</v>
       </c>
-      <c r="AE24" s="9">
-        <f t="shared" si="74"/>
+      <c r="AF24" s="9">
+        <f t="shared" si="69"/>
         <v>0.04</v>
       </c>
-      <c r="AF24" s="9">
-        <f t="shared" si="74"/>
+      <c r="AG24" s="9">
+        <f t="shared" si="69"/>
         <v>0.04</v>
       </c>
-      <c r="AG24" s="9">
-        <f t="shared" si="74"/>
+      <c r="AH24" s="9">
+        <f t="shared" si="69"/>
         <v>0.04</v>
       </c>
-      <c r="AH24" s="9">
-        <f t="shared" si="74"/>
+      <c r="AI24" s="9">
+        <f t="shared" si="69"/>
         <v>0.04</v>
       </c>
-      <c r="AI24" s="9">
-        <f t="shared" si="74"/>
-        <v>0.04</v>
-      </c>
       <c r="AJ24" s="9">
-        <f t="shared" si="74"/>
-        <v>0.04</v>
+        <f t="shared" si="69"/>
+        <v>4.0000000000000008E-2</v>
       </c>
       <c r="AM24" t="s">
         <v>49</v>
@@ -4193,47 +4155,47 @@
         <v>-6.315789473684208E-2</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" ref="H25:N25" si="75">H7/D7-1</f>
+        <f t="shared" ref="H25:N25" si="70">H7/D7-1</f>
         <v>-5.7894736842105221E-2</v>
       </c>
       <c r="I25" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="70"/>
         <v>2.2471910112359605E-2</v>
       </c>
       <c r="J25" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="70"/>
         <v>6.4864864864864868E-2</v>
       </c>
       <c r="K25" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="70"/>
         <v>1.6853932584269593E-2</v>
       </c>
       <c r="L25" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="70"/>
         <v>5.5865921787709549E-2</v>
       </c>
       <c r="M25" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="70"/>
         <v>9.8901098901098994E-2</v>
       </c>
       <c r="N25" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="70"/>
         <v>5.5837563451776706E-2</v>
       </c>
       <c r="O25" s="9">
-        <f t="shared" ref="O25" si="76">O7/K7-1</f>
+        <f t="shared" ref="O25" si="71">O7/K7-1</f>
         <v>0.14364640883977908</v>
       </c>
       <c r="P25" s="9">
-        <f t="shared" ref="P25" si="77">P7/L7-1</f>
+        <f t="shared" ref="P25" si="72">P7/L7-1</f>
+        <v>0.18518518518518512</v>
+      </c>
+      <c r="Q25" s="9">
+        <f t="shared" ref="Q25" si="73">Q7/M7-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q25" s="9">
-        <f t="shared" ref="Q25" si="78">Q7/M7-1</f>
-        <v>0.10000000000000009</v>
-      </c>
       <c r="R25" s="9">
-        <f t="shared" ref="R25" si="79">R7/N7-1</f>
+        <f t="shared" ref="R25" si="74">R7/N7-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="S25" s="9"/>
@@ -4243,63 +4205,63 @@
         <v>8.3217753120665705E-3</v>
       </c>
       <c r="V25" s="9">
-        <f t="shared" ref="V25:AJ25" si="80">V7/U7-1</f>
+        <f t="shared" ref="V25:AJ25" si="75">V7/U7-1</f>
         <v>4.126547455295837E-3</v>
       </c>
       <c r="W25" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>1.7808219178082174E-2</v>
       </c>
       <c r="X25" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>-9.421265141319024E-3</v>
       </c>
       <c r="Y25" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>5.7065217391304435E-2</v>
       </c>
       <c r="Z25" s="9">
-        <f t="shared" si="80"/>
-        <v>0.11015424164524434</v>
+        <f t="shared" si="75"/>
+        <v>0.13084832904884314</v>
       </c>
       <c r="AA25" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="AB25" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AC25" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AD25" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AE25" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AF25" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AG25" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AH25" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AI25" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AJ25" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="75"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AM25" t="s">
@@ -4307,7 +4269,7 @@
       </c>
       <c r="AN25" s="3">
         <f>NPV(AN24,Z18:EQ18)</f>
-        <v>407377.49521612137</v>
+        <v>424451.95980651764</v>
       </c>
     </row>
     <row r="26" spans="1:147" x14ac:dyDescent="0.3">
@@ -4315,19 +4277,19 @@
         <v>42</v>
       </c>
       <c r="C26" s="9">
-        <f t="shared" ref="C26:F26" si="81">C8/C3</f>
+        <f t="shared" ref="C26:F26" si="76">C8/C3</f>
         <v>1.4166312508853945E-2</v>
       </c>
       <c r="D26" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>1.7387675615523717E-2</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>1.6082474226804123E-2</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="76"/>
         <v>2.0932323102606908E-2</v>
       </c>
       <c r="G26" s="9">
@@ -4335,123 +4297,123 @@
         <v>1.3734879032258064E-2</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" ref="H26:N26" si="82">H8/H3</f>
+        <f t="shared" ref="H26:N26" si="77">H8/H3</f>
         <v>1.6280525986224169E-2</v>
       </c>
       <c r="I26" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>1.6373261110427181E-2</v>
       </c>
       <c r="J26" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>2.0095249157858056E-2</v>
       </c>
       <c r="K26" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>1.5172573546444291E-2</v>
       </c>
       <c r="L26" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>1.8233618233618232E-2</v>
       </c>
       <c r="M26" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>1.707865168539326E-2</v>
       </c>
       <c r="N26" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="77"/>
         <v>1.9964645939482165E-2</v>
       </c>
       <c r="O26" s="9">
-        <f t="shared" ref="O26:R26" si="83">O8/O3</f>
+        <f t="shared" ref="O26:R26" si="78">O8/O3</f>
         <v>1.5036803364879074E-2</v>
       </c>
       <c r="P26" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="78"/>
+        <v>1.8032103397957057E-2</v>
+      </c>
+      <c r="Q26" s="9">
+        <f t="shared" si="78"/>
         <v>0.02</v>
       </c>
-      <c r="Q26" s="9">
-        <f t="shared" si="83"/>
+      <c r="R26" s="9">
+        <f t="shared" si="78"/>
         <v>0.02</v>
       </c>
-      <c r="R26" s="9">
-        <f t="shared" si="83"/>
+      <c r="T26" s="9">
+        <f t="shared" ref="T26:AJ26" si="79">T8/T3</f>
+        <v>1.9758889324106715E-2</v>
+      </c>
+      <c r="U26" s="9">
+        <f t="shared" si="79"/>
+        <v>1.8676187860477891E-2</v>
+      </c>
+      <c r="V26" s="9">
+        <f t="shared" si="79"/>
+        <v>1.6718523127981746E-2</v>
+      </c>
+      <c r="W26" s="9">
+        <f t="shared" si="79"/>
+        <v>1.7229614466052541E-2</v>
+      </c>
+      <c r="X26" s="9">
+        <f t="shared" si="79"/>
+        <v>1.6690656294980552E-2</v>
+      </c>
+      <c r="Y26" s="9">
+        <f t="shared" si="79"/>
+        <v>1.7675221288203528E-2</v>
+      </c>
+      <c r="Z26" s="9">
+        <f t="shared" si="79"/>
+        <v>1.8313605563876657E-2</v>
+      </c>
+      <c r="AA26" s="9">
+        <f t="shared" si="79"/>
         <v>0.02</v>
       </c>
-      <c r="T26" s="9">
-        <f t="shared" ref="T26:AJ26" si="84">T8/T3</f>
-        <v>1.9758889324106715E-2</v>
-      </c>
-      <c r="U26" s="9">
-        <f t="shared" si="84"/>
-        <v>1.8676187860477891E-2</v>
-      </c>
-      <c r="V26" s="9">
-        <f t="shared" si="84"/>
-        <v>1.6718523127981746E-2</v>
-      </c>
-      <c r="W26" s="9">
-        <f t="shared" si="84"/>
-        <v>1.7229614466052541E-2</v>
-      </c>
-      <c r="X26" s="9">
-        <f t="shared" si="84"/>
-        <v>1.6690656294980552E-2</v>
-      </c>
-      <c r="Y26" s="9">
-        <f t="shared" si="84"/>
-        <v>1.7675221288203528E-2</v>
-      </c>
-      <c r="Z26" s="9">
-        <f t="shared" si="84"/>
-        <v>1.8799911722319915E-2</v>
-      </c>
-      <c r="AA26" s="9">
-        <f t="shared" si="84"/>
+      <c r="AB26" s="9">
+        <f t="shared" si="79"/>
         <v>0.02</v>
       </c>
-      <c r="AB26" s="9">
-        <f t="shared" si="84"/>
+      <c r="AC26" s="9">
+        <f t="shared" si="79"/>
         <v>0.02</v>
       </c>
-      <c r="AC26" s="9">
-        <f t="shared" si="84"/>
+      <c r="AD26" s="9">
+        <f t="shared" si="79"/>
         <v>0.02</v>
       </c>
-      <c r="AD26" s="9">
-        <f t="shared" si="84"/>
+      <c r="AE26" s="9">
+        <f t="shared" si="79"/>
         <v>0.02</v>
       </c>
-      <c r="AE26" s="9">
-        <f t="shared" si="84"/>
+      <c r="AF26" s="9">
+        <f t="shared" si="79"/>
         <v>0.02</v>
       </c>
-      <c r="AF26" s="9">
-        <f t="shared" si="84"/>
+      <c r="AG26" s="9">
+        <f t="shared" si="79"/>
         <v>0.02</v>
       </c>
-      <c r="AG26" s="9">
-        <f t="shared" si="84"/>
+      <c r="AH26" s="9">
+        <f t="shared" si="79"/>
         <v>0.02</v>
       </c>
-      <c r="AH26" s="9">
-        <f t="shared" si="84"/>
+      <c r="AI26" s="9">
+        <f t="shared" si="79"/>
         <v>0.02</v>
       </c>
-      <c r="AI26" s="9">
-        <f t="shared" si="84"/>
-        <v>0.02</v>
-      </c>
       <c r="AJ26" s="9">
-        <f t="shared" si="84"/>
-        <v>0.02</v>
+        <f t="shared" si="79"/>
+        <v>2.0000000000000004E-2</v>
       </c>
       <c r="AM26" t="s">
         <v>51</v>
       </c>
       <c r="AN26" s="3">
         <f>Main!D8</f>
-        <v>-4518</v>
+        <v>-5541</v>
       </c>
     </row>
     <row r="27" spans="1:147" x14ac:dyDescent="0.3">
@@ -4467,48 +4429,48 @@
         <v>0.14646464646464641</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" ref="H27:N27" si="85">H9/D9-1</f>
+        <f t="shared" ref="H27:N27" si="80">H9/D9-1</f>
         <v>0.13043478260869557</v>
       </c>
       <c r="I27" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>2.1739130434782705E-2</v>
       </c>
       <c r="J27" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>9.2920353982300918E-2</v>
       </c>
       <c r="K27" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>8.8105726872246715E-2</v>
       </c>
       <c r="L27" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>6.4102564102564097E-2</v>
       </c>
       <c r="M27" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>0.123404255319149</v>
       </c>
       <c r="N27" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="80"/>
         <v>0.10931174089068829</v>
       </c>
       <c r="O27" s="9">
-        <f t="shared" ref="O27:O28" si="86">O9/K9-1</f>
+        <f t="shared" ref="O27:O28" si="81">O9/K9-1</f>
         <v>0.14170040485829949</v>
       </c>
       <c r="P27" s="9">
-        <f t="shared" ref="P27:P28" si="87">P9/L9-1</f>
-        <v>0.12000000000000011</v>
+        <f t="shared" ref="P27:P28" si="82">P9/L9-1</f>
+        <v>0.22489959839357421</v>
       </c>
       <c r="Q27" s="9">
-        <f t="shared" ref="Q27:Q28" si="88">Q9/M9-1</f>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" ref="Q27:Q28" si="83">Q9/M9-1</f>
+        <v>0.15999999999999992</v>
       </c>
       <c r="R27" s="9">
-        <f t="shared" ref="R27:R28" si="89">R9/N9-1</f>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" ref="R27:R28" si="84">R9/N9-1</f>
+        <v>0.14999999999999991</v>
       </c>
       <c r="T27" s="9"/>
       <c r="U27" s="9">
@@ -4516,71 +4478,41 @@
         <v>0.16920731707317072</v>
       </c>
       <c r="V27" s="9">
-        <f t="shared" ref="V27:AJ27" si="90">V9/U9-1</f>
+        <f t="shared" ref="V27:Z27" si="85">V9/U9-1</f>
         <v>4.8239895697522739E-2</v>
       </c>
       <c r="W27" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>7.0895522388059629E-2</v>
       </c>
       <c r="X27" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>9.5238095238095344E-2</v>
       </c>
       <c r="Y27" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="85"/>
         <v>9.6500530222693559E-2</v>
       </c>
       <c r="Z27" s="9">
-        <f t="shared" si="90"/>
-        <v>0.10437137330754354</v>
-      </c>
-      <c r="AA27" s="9">
-        <f t="shared" si="90"/>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="AB27" s="9">
-        <f t="shared" si="90"/>
-        <v>6.0000000000000053E-2</v>
-      </c>
-      <c r="AC27" s="9">
-        <f t="shared" si="90"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AD27" s="9">
-        <f t="shared" si="90"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AE27" s="9">
-        <f t="shared" si="90"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AF27" s="9">
-        <f t="shared" si="90"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AG27" s="9">
-        <f t="shared" si="90"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AH27" s="9">
-        <f t="shared" si="90"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AI27" s="9">
-        <f t="shared" si="90"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AJ27" s="9">
-        <f t="shared" si="90"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
+        <f t="shared" si="85"/>
+        <v>0.16860735009671179</v>
+      </c>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
       <c r="AM27" t="s">
         <v>52</v>
       </c>
       <c r="AN27" s="3">
         <f>AN25+AN26</f>
-        <v>402859.49521612137</v>
+        <v>418910.95980651764</v>
       </c>
     </row>
     <row r="28" spans="1:147" x14ac:dyDescent="0.3">
@@ -4596,48 +4528,48 @@
         <v>0.33057851239669422</v>
       </c>
       <c r="H28" s="9">
-        <f t="shared" ref="H28:N28" si="91">H10/D10-1</f>
+        <f t="shared" ref="H28:N28" si="86">H10/D10-1</f>
         <v>-0.13230769230769235</v>
       </c>
       <c r="I28" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>8.6505190311418678E-2</v>
       </c>
       <c r="J28" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>0.21893491124260356</v>
       </c>
       <c r="K28" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>5.5900621118012417E-2</v>
       </c>
       <c r="L28" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>0.60283687943262421</v>
       </c>
       <c r="M28" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>0.21656050955414008</v>
       </c>
       <c r="N28" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="86"/>
         <v>2.9126213592232997E-2</v>
       </c>
       <c r="O28" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="81"/>
         <v>0.41470588235294126</v>
       </c>
       <c r="P28" s="9">
-        <f t="shared" si="87"/>
-        <v>5.0000000000000044E-2</v>
+        <f t="shared" si="82"/>
+        <v>-7.3008849557522071E-2</v>
       </c>
       <c r="Q28" s="9">
-        <f t="shared" si="88"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="83"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="R28" s="9">
-        <f t="shared" si="89"/>
-        <v>0.19999999999999996</v>
+        <f t="shared" si="84"/>
+        <v>0.14999999999999991</v>
       </c>
       <c r="T28" s="9"/>
       <c r="U28" s="9">
@@ -4645,63 +4577,63 @@
         <v>-8.361204013377932E-2</v>
       </c>
       <c r="V28" s="9">
-        <f t="shared" ref="V28:AJ28" si="92">V10/U10-1</f>
+        <f t="shared" ref="V28:AJ28" si="87">V10/U10-1</f>
         <v>-0.10127737226277367</v>
       </c>
       <c r="W28" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>0.21218274111675117</v>
       </c>
       <c r="X28" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>0.11390284757118918</v>
       </c>
       <c r="Y28" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>0.2015037593984963</v>
       </c>
       <c r="Z28" s="9">
-        <f t="shared" si="92"/>
-        <v>0.2032540675844805</v>
+        <f t="shared" si="87"/>
+        <v>0.14324155193992483</v>
       </c>
       <c r="AA28" s="9">
-        <f t="shared" si="92"/>
-        <v>6.0000000000000053E-2</v>
+        <f t="shared" si="87"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="AB28" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AC28" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AD28" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AE28" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AF28" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AG28" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AH28" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AI28" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AJ28" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="87"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AM28" t="s">
@@ -4709,7 +4641,7 @@
       </c>
       <c r="AN28" s="11">
         <f>AN27/AJ19</f>
-        <v>216.85928579217386</v>
+        <v>227.0397050601689</v>
       </c>
     </row>
     <row r="29" spans="1:147" x14ac:dyDescent="0.3">
@@ -4717,19 +4649,19 @@
         <v>45</v>
       </c>
       <c r="C29" s="9">
-        <f t="shared" ref="C29:F29" si="93">C11/C3</f>
+        <f t="shared" ref="C29:F29" si="88">C11/C3</f>
         <v>2.0966142513103841E-2</v>
       </c>
       <c r="D29" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="E29" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>9.855670103092784E-2</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="88"/>
         <v>3.8525748041607808E-4</v>
       </c>
       <c r="G29" s="9">
@@ -4737,123 +4669,123 @@
         <v>4.296875E-2</v>
       </c>
       <c r="H29" s="9">
-        <f t="shared" ref="H29:N29" si="94">H11/H3</f>
+        <f t="shared" ref="H29:N29" si="89">H11/H3</f>
         <v>0</v>
       </c>
       <c r="I29" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>5.6260002462144527E-2</v>
       </c>
       <c r="J29" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>1.4984318736206296E-2</v>
       </c>
       <c r="K29" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>1.0423905489923557E-3</v>
       </c>
       <c r="L29" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>4.9002849002849E-2</v>
       </c>
       <c r="M29" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>1.4606741573033708E-3</v>
       </c>
       <c r="N29" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="89"/>
         <v>1.0398253093480295E-3</v>
       </c>
       <c r="O29" s="9">
-        <f t="shared" ref="O29:R29" si="95">O11/O3</f>
+        <f t="shared" ref="O29:R29" si="90">O11/O3</f>
         <v>4.6267087276550996E-3</v>
       </c>
       <c r="P29" s="9">
-        <f t="shared" si="95"/>
-        <v>2.0533353866687199E-3</v>
+        <f t="shared" si="90"/>
+        <v>0.10423181154888472</v>
       </c>
       <c r="Q29" s="9">
-        <f t="shared" si="95"/>
-        <v>2.0429009193054137E-3</v>
+        <f t="shared" si="90"/>
+        <v>0.10214504596527069</v>
       </c>
       <c r="R29" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="90"/>
         <v>0.04</v>
       </c>
       <c r="T29" s="9">
-        <f t="shared" ref="T29:AJ29" si="96">T11/T3</f>
+        <f t="shared" ref="T29:AJ29" si="91">T11/T3</f>
         <v>1.7408713060886975E-2</v>
       </c>
       <c r="U29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>5.0352467270896274E-4</v>
       </c>
       <c r="V29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>1.2445550715619165E-4</v>
       </c>
       <c r="W29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>2.9614466052541796E-2</v>
       </c>
       <c r="X29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>2.838942823017793E-2</v>
       </c>
       <c r="Y29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>1.2859767299448868E-2</v>
       </c>
       <c r="Z29" s="9">
-        <f t="shared" si="96"/>
-        <v>1.2601120150194099E-2</v>
+        <f t="shared" si="91"/>
+        <v>6.2668326179512707E-2</v>
       </c>
       <c r="AA29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>0.01</v>
       </c>
       <c r="AB29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>0.01</v>
       </c>
       <c r="AC29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>0.01</v>
       </c>
       <c r="AD29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>0.01</v>
       </c>
       <c r="AE29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>0.01</v>
       </c>
       <c r="AF29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>0.01</v>
       </c>
       <c r="AG29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>0.01</v>
       </c>
       <c r="AH29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>0.01</v>
       </c>
       <c r="AI29" s="9">
-        <f t="shared" si="96"/>
+        <f t="shared" si="91"/>
         <v>0.01</v>
       </c>
       <c r="AJ29" s="9">
-        <f t="shared" si="96"/>
-        <v>0.01</v>
+        <f t="shared" si="91"/>
+        <v>1.0000000000000002E-2</v>
       </c>
       <c r="AM29" t="s">
         <v>54</v>
       </c>
       <c r="AN29" s="11">
         <f>Main!D3</f>
-        <v>334.1</v>
+        <v>347.6</v>
       </c>
     </row>
     <row r="30" spans="1:147" x14ac:dyDescent="0.3">
@@ -4861,19 +4793,19 @@
         <v>46</v>
       </c>
       <c r="C30" s="9">
-        <f t="shared" ref="C30:F30" si="97">C13/C3</f>
+        <f t="shared" ref="C30:F30" si="92">C13/C3</f>
         <v>0.67658308542286438</v>
       </c>
       <c r="D30" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="92"/>
         <v>0.66796494644595905</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="92"/>
         <v>0.57017182130584187</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="92"/>
         <v>0.6532682676255297</v>
       </c>
       <c r="G30" s="9">
@@ -4881,123 +4813,123 @@
         <v>0.64138104838709675</v>
       </c>
       <c r="H30" s="9">
-        <f t="shared" ref="H30:N30" si="98">H13/H3</f>
+        <f t="shared" ref="H30:N30" si="93">H13/H3</f>
         <v>0.66825297432686281</v>
       </c>
       <c r="I30" s="9">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.6184907054044072</v>
       </c>
       <c r="J30" s="9">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.64467417818561967</v>
       </c>
       <c r="K30" s="9">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.68959925874449846</v>
       </c>
       <c r="L30" s="9">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.61014245014245017</v>
       </c>
       <c r="M30" s="9">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.66719101123595503</v>
       </c>
       <c r="N30" s="9">
-        <f t="shared" si="98"/>
+        <f t="shared" si="93"/>
         <v>0.660185088905064</v>
       </c>
       <c r="O30" s="9">
-        <f t="shared" ref="O30:R30" si="99">O13/O3</f>
+        <f t="shared" ref="O30:R30" si="94">O13/O3</f>
         <v>0.65552050473186119</v>
       </c>
       <c r="P30" s="9">
-        <f t="shared" si="99"/>
-        <v>0.6592448859115525</v>
+        <f t="shared" si="94"/>
+        <v>0.56649989576818849</v>
       </c>
       <c r="Q30" s="9">
-        <f t="shared" si="99"/>
-        <v>0.65953830439223693</v>
+        <f t="shared" si="94"/>
+        <v>0.55922982635342178</v>
       </c>
       <c r="R30" s="9">
-        <f t="shared" si="99"/>
-        <v>0.59956259311052551</v>
+        <f t="shared" si="94"/>
+        <v>0.59975889658014081</v>
       </c>
       <c r="T30" s="9">
-        <f t="shared" ref="T30:AJ30" si="100">T13/T3</f>
+        <f t="shared" ref="T30:AJ30" si="95">T13/T3</f>
         <v>0.65287026156591377</v>
       </c>
       <c r="U30" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="95"/>
         <v>0.64455735603771858</v>
       </c>
       <c r="V30" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="95"/>
         <v>0.65563161169881767</v>
       </c>
       <c r="W30" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="95"/>
         <v>0.64186284544524053</v>
       </c>
       <c r="X30" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="95"/>
         <v>0.64312620586163594</v>
       </c>
       <c r="Y30" s="9">
-        <f t="shared" si="100"/>
+        <f t="shared" si="95"/>
         <v>0.65676668707899566</v>
       </c>
       <c r="Z30" s="9">
-        <f t="shared" si="100"/>
-        <v>0.64280244512901452</v>
+        <f t="shared" si="95"/>
+        <v>0.59502296717119829</v>
       </c>
       <c r="AA30" s="9">
-        <f t="shared" si="100"/>
-        <v>0.66105104864342923</v>
+        <f t="shared" si="95"/>
+        <v>0.69200497684035178</v>
       </c>
       <c r="AB30" s="9">
-        <f t="shared" si="100"/>
-        <v>0.66190681135062313</v>
+        <f t="shared" si="95"/>
+        <v>0.69308828116064514</v>
       </c>
       <c r="AC30" s="9">
-        <f t="shared" si="100"/>
-        <v>0.66208615458888742</v>
+        <f t="shared" si="95"/>
+        <v>0.69352401383179896</v>
       </c>
       <c r="AD30" s="9">
-        <f t="shared" si="100"/>
-        <v>0.66151128217790767</v>
+        <f t="shared" si="95"/>
+        <v>0.69352401383179896</v>
       </c>
       <c r="AE30" s="9">
-        <f t="shared" si="100"/>
-        <v>0.66159764121427278</v>
+        <f t="shared" si="95"/>
+        <v>0.69417573918638931</v>
       </c>
       <c r="AF30" s="9">
-        <f t="shared" si="100"/>
-        <v>0.66166591405168218</v>
+        <f t="shared" si="95"/>
+        <v>0.69482107507671864</v>
       </c>
       <c r="AG30" s="9">
-        <f t="shared" si="100"/>
-        <v>0.66171593997558176</v>
+        <f t="shared" si="95"/>
+        <v>0.69546008414459404</v>
       </c>
       <c r="AH30" s="9">
-        <f t="shared" si="100"/>
-        <v>0.66174755321900669</v>
+        <f t="shared" si="95"/>
+        <v>0.69609282841768627</v>
       </c>
       <c r="AI30" s="9">
-        <f t="shared" si="100"/>
-        <v>0.661760582882153</v>
+        <f t="shared" si="95"/>
+        <v>0.69671936931555212</v>
       </c>
       <c r="AJ30" s="9">
-        <f t="shared" si="100"/>
-        <v>0.66175485285018965</v>
+        <f t="shared" si="95"/>
+        <v>0.6973397676555958</v>
       </c>
       <c r="AM30" s="6" t="s">
         <v>55</v>
       </c>
       <c r="AN30" s="10">
         <f>AN28/AN29-1</f>
-        <v>-0.35091503803599566</v>
+        <v>-0.34683629154151641</v>
       </c>
     </row>
     <row r="31" spans="1:147" x14ac:dyDescent="0.3">
@@ -5005,19 +4937,19 @@
         <v>23</v>
       </c>
       <c r="C31" s="9">
-        <f t="shared" ref="C31:F31" si="101">C17/C16</f>
+        <f t="shared" ref="C31:F31" si="96">C17/C16</f>
         <v>0.171125178680825</v>
       </c>
       <c r="D31" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="96"/>
         <v>0.19704975781594011</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="96"/>
         <v>0.10916688430399582</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="96"/>
         <v>0.19063270336894</v>
       </c>
       <c r="G31" s="9">
@@ -5025,115 +4957,115 @@
         <v>0.16033755274261605</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" ref="H31:N31" si="102">H17/H16</f>
+        <f t="shared" ref="H31:N31" si="97">H17/H16</f>
         <v>0.19344448654793484</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>0.19238243295763699</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>0.16944641589779985</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>0.1906653426017875</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>0.15418102666424813</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>0.18650859909834697</v>
       </c>
       <c r="N31" s="9">
-        <f t="shared" si="102"/>
+        <f t="shared" si="97"/>
         <v>0.16541117388575016</v>
       </c>
       <c r="O31" s="9">
-        <f t="shared" ref="O31:R31" si="103">O17/O16</f>
+        <f t="shared" ref="O31:R31" si="98">O17/O16</f>
         <v>0.17435483870967741</v>
       </c>
       <c r="P31" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="98"/>
+        <v>0.15833026848105922</v>
+      </c>
+      <c r="Q31" s="9">
+        <f t="shared" si="98"/>
+        <v>0.17</v>
+      </c>
+      <c r="R31" s="9">
+        <f t="shared" si="98"/>
         <v>0.17000000000000004</v>
       </c>
-      <c r="Q31" s="9">
-        <f t="shared" si="103"/>
-        <v>0.17</v>
-      </c>
-      <c r="R31" s="9">
-        <f t="shared" si="103"/>
-        <v>0.17</v>
-      </c>
       <c r="T31" s="9">
-        <f t="shared" ref="T31:AJ31" si="104">T17/T16</f>
+        <f t="shared" ref="T31:AJ31" si="99">T17/T16</f>
         <v>0.18839021768341843</v>
       </c>
       <c r="U31" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="99"/>
         <v>0.212037708484409</v>
       </c>
       <c r="V31" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="99"/>
         <v>0.23358027765672665</v>
       </c>
       <c r="W31" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="99"/>
         <v>0.16977282752536391</v>
       </c>
       <c r="X31" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="99"/>
         <v>0.17892285021628559</v>
       </c>
       <c r="Y31" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="99"/>
         <v>0.17448569994982438</v>
       </c>
       <c r="Z31" s="9">
-        <f t="shared" si="104"/>
-        <v>0.17106750156359324</v>
+        <f t="shared" si="99"/>
+        <v>0.16843616586472632</v>
       </c>
       <c r="AA31" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="99"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="AB31" s="9">
+        <f t="shared" si="99"/>
         <v>0.18</v>
       </c>
-      <c r="AB31" s="9">
-        <f t="shared" si="104"/>
+      <c r="AC31" s="9">
+        <f t="shared" si="99"/>
         <v>0.18</v>
       </c>
-      <c r="AC31" s="9">
-        <f t="shared" si="104"/>
+      <c r="AD31" s="9">
+        <f t="shared" si="99"/>
         <v>0.18</v>
       </c>
-      <c r="AD31" s="9">
-        <f t="shared" si="104"/>
+      <c r="AE31" s="9">
+        <f t="shared" si="99"/>
         <v>0.18</v>
       </c>
-      <c r="AE31" s="9">
-        <f t="shared" si="104"/>
+      <c r="AF31" s="9">
+        <f t="shared" si="99"/>
         <v>0.18</v>
       </c>
-      <c r="AF31" s="9">
-        <f t="shared" si="104"/>
+      <c r="AG31" s="9">
+        <f t="shared" si="99"/>
         <v>0.18</v>
       </c>
-      <c r="AG31" s="9">
-        <f t="shared" si="104"/>
+      <c r="AH31" s="9">
+        <f t="shared" si="99"/>
         <v>0.18</v>
       </c>
-      <c r="AH31" s="9">
-        <f t="shared" si="104"/>
+      <c r="AI31" s="9">
+        <f t="shared" si="99"/>
         <v>0.18</v>
       </c>
-      <c r="AI31" s="9">
-        <f t="shared" si="104"/>
-        <v>0.18</v>
-      </c>
       <c r="AJ31" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="99"/>
         <v>0.18</v>
       </c>
       <c r="AM31" t="s">
@@ -5152,132 +5084,132 @@
         <v>0.57501062473438169</v>
       </c>
       <c r="D32" s="9">
-        <f t="shared" ref="D32:N32" si="105">D18/D3</f>
+        <f t="shared" ref="D32:N32" si="100">D18/D3</f>
         <v>0.50730282375851998</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="100"/>
         <v>0.46886597938144331</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="100"/>
         <v>0.50597149094644922</v>
       </c>
       <c r="G32" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="100"/>
         <v>0.52658770161290325</v>
       </c>
       <c r="H32" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="100"/>
         <v>0.53312460864120226</v>
       </c>
       <c r="I32" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="100"/>
         <v>0.5116336328942509</v>
       </c>
       <c r="J32" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="100"/>
         <v>0.54373330235799744</v>
       </c>
       <c r="K32" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="100"/>
         <v>0.56636553161918002</v>
       </c>
       <c r="L32" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="100"/>
         <v>0.53139601139601145</v>
       </c>
       <c r="M32" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="100"/>
         <v>0.54741573033707869</v>
       </c>
       <c r="N32" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="100"/>
         <v>0.5529790995112821</v>
       </c>
       <c r="O32" s="9">
-        <f t="shared" ref="O32:R32" si="106">O18/O3</f>
+        <f t="shared" ref="O32:R32" si="101">O18/O3</f>
         <v>0.5382754994742377</v>
       </c>
       <c r="P32" s="9">
-        <f t="shared" si="106"/>
-        <v>0.54845145658478978</v>
+        <f t="shared" si="101"/>
+        <v>0.47706900145924536</v>
       </c>
       <c r="Q32" s="9">
-        <f t="shared" si="106"/>
-        <v>0.54868849846782419</v>
+        <f t="shared" si="101"/>
+        <v>0.46543246169560759</v>
       </c>
       <c r="R32" s="9">
-        <f t="shared" si="106"/>
-        <v>0.49884684247812711</v>
+        <f t="shared" si="101"/>
+        <v>0.49900977435790783</v>
       </c>
       <c r="T32" s="9">
-        <f t="shared" ref="T32:AJ32" si="107">T18/T3</f>
+        <f t="shared" ref="T32:AJ32" si="102">T18/T3</f>
         <v>0.52574313443878662</v>
       </c>
       <c r="U32" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="102"/>
         <v>0.49739082669596263</v>
       </c>
       <c r="V32" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="102"/>
         <v>0.51072391619995849</v>
       </c>
       <c r="W32" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="102"/>
         <v>0.51371545547594677</v>
       </c>
       <c r="X32" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="102"/>
         <v>0.52898661684990655</v>
       </c>
       <c r="Y32" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="102"/>
         <v>0.54954628959527918</v>
       </c>
       <c r="Z32" s="9">
-        <f t="shared" si="107"/>
-        <v>0.53307167400110445</v>
+        <f t="shared" si="102"/>
+        <v>0.49477835805716536</v>
       </c>
       <c r="AA32" s="9">
-        <f t="shared" si="107"/>
-        <v>0.54199112919762027</v>
+        <f t="shared" si="102"/>
+        <v>0.56714660741878986</v>
       </c>
       <c r="AB32" s="9">
-        <f t="shared" si="107"/>
-        <v>0.54241381030808566</v>
+        <f t="shared" si="102"/>
+        <v>0.56777381894951029</v>
       </c>
       <c r="AC32" s="9">
-        <f t="shared" si="107"/>
-        <v>0.54228592469911485</v>
+        <f t="shared" si="102"/>
+        <v>0.56786953545121543</v>
       </c>
       <c r="AD32" s="9">
-        <f t="shared" si="107"/>
-        <v>0.5415361530911027</v>
+        <f t="shared" si="102"/>
+        <v>0.56760247497039562</v>
       </c>
       <c r="AE32" s="9">
-        <f t="shared" si="107"/>
-        <v>0.54132853122357882</v>
+        <f t="shared" si="102"/>
+        <v>0.56786975044951638</v>
       </c>
       <c r="AF32" s="9">
-        <f t="shared" si="107"/>
-        <v>0.54110599186992259</v>
+        <f t="shared" si="102"/>
+        <v>0.56813168206809961</v>
       </c>
       <c r="AG32" s="9">
-        <f t="shared" si="107"/>
-        <v>0.54086837648177388</v>
+        <f t="shared" si="102"/>
+        <v>0.56838829551583026</v>
       </c>
       <c r="AH32" s="9">
-        <f t="shared" si="107"/>
-        <v>0.54061552235945254</v>
+        <f t="shared" si="102"/>
+        <v>0.56863961596875767</v>
       </c>
       <c r="AI32" s="9">
-        <f t="shared" si="107"/>
-        <v>0.54034726258343468</v>
+        <f t="shared" si="102"/>
+        <v>0.56888566809176555</v>
       </c>
       <c r="AJ32" s="9">
-        <f t="shared" si="107"/>
-        <v>0.54006342594438561</v>
+        <f t="shared" si="102"/>
+        <v>0.5691264760409912</v>
       </c>
     </row>
   </sheetData>
